--- a/Basic/6/result.xlsx
+++ b/Basic/6/result.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10313"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/macbook/Desktop/Excel/Basic/6/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98B96DC7-43A3-934A-97F2-33E871B86C0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="210" windowWidth="14955" windowHeight="7710" tabRatio="727"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" tabRatio="727" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Вводная" sheetId="8" r:id="rId1"/>
@@ -15,7 +21,19 @@
     <sheet name="Именованные диапазоны 1" sheetId="13" r:id="rId6"/>
     <sheet name="Именованные диапазоны 2" sheetId="28" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -592,11 +610,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
-    <numFmt numFmtId="44" formatCode="_-* #,##0.00&quot;р.&quot;_-;\-* #,##0.00&quot;р.&quot;_-;_-* &quot;-&quot;??&quot;р.&quot;_-;_-@_-"/>
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_р_._-;\-* #,##0.00_р_._-;_-* &quot;-&quot;??_р_._-;_-@_-"/>
-    <numFmt numFmtId="164" formatCode="#,##0.00&quot;р.&quot;"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0.00&quot;р.&quot;_-;\-* #,##0.00&quot;р.&quot;_-;_-* &quot;-&quot;??&quot;р.&quot;_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="_-* #,##0.00_р_._-;\-* #,##0.00_р_._-;_-* &quot;-&quot;??_р_._-;_-@_-"/>
+    <numFmt numFmtId="166" formatCode="#,##0.00&quot;р.&quot;"/>
   </numFmts>
   <fonts count="9" x14ac:knownFonts="1">
     <font>
@@ -884,78 +902,57 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="5" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -963,28 +960,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -1000,10 +981,10 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
@@ -1013,35 +994,58 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="5">
-    <cellStyle name="Normal 4" xfId="1"/>
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
-    <cellStyle name="Обычный 2" xfId="2"/>
-    <cellStyle name="Процентный 2" xfId="3"/>
-    <cellStyle name="Финансовый" xfId="4" builtinId="3"/>
+    <cellStyle name="Comma" xfId="4" builtinId="3"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 4" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="Обычный 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Процентный 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1059,7 +1063,13 @@
     <xdr:ext cx="5200650" cy="3057525"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="TextBox 1"/>
+        <xdr:cNvPr id="2" name="TextBox 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1335,7 +1345,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Рисунок 2"/>
+        <xdr:cNvPr id="3" name="Рисунок 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1379,7 +1395,13 @@
     <xdr:ext cx="6419849" cy="2028826"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="TextBox 1"/>
+        <xdr:cNvPr id="2" name="TextBox 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1602,7 +1624,13 @@
     <xdr:ext cx="6419849" cy="1543051"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="TextBox 1"/>
+        <xdr:cNvPr id="2" name="TextBox 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1699,7 +1727,13 @@
     <xdr:ext cx="6419849" cy="1543051"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="TextBox 1"/>
+        <xdr:cNvPr id="2" name="TextBox 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1814,7 +1848,13 @@
     <xdr:ext cx="6419849" cy="1885951"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="TextBox 1"/>
+        <xdr:cNvPr id="2" name="TextBox 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1957,7 +1997,13 @@
     <xdr:ext cx="6419849" cy="1543051"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="TextBox 1"/>
+        <xdr:cNvPr id="2" name="TextBox 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2059,7 +2105,13 @@
     <xdr:ext cx="6419849" cy="2324101"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="TextBox 1"/>
+        <xdr:cNvPr id="2" name="TextBox 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2299,9 +2351,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Стандартная">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2339,9 +2391,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Стандартная">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2374,9 +2426,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2409,9 +2478,26 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Стандартная">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2584,12 +2670,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView topLeftCell="A5" zoomScale="268" zoomScaleNormal="268" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -2597,794 +2683,889 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <tabColor theme="5" tint="0.39997558519241921"/>
   </sheetPr>
   <dimension ref="A13:J70"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="132" zoomScaleNormal="132" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12" style="18" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.42578125" style="18" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="43.7109375" customWidth="1"/>
+    <col min="1" max="1" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="43.6640625" customWidth="1"/>
     <col min="5" max="5" width="21" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="64.28515625" style="19" customWidth="1"/>
-    <col min="9" max="9" width="12.42578125" style="20" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.42578125" style="20" customWidth="1"/>
+    <col min="6" max="6" width="16.83203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="64.33203125" style="14" customWidth="1"/>
+    <col min="9" max="9" width="12.5" style="15" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.5" style="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="13" spans="1:10" ht="21" x14ac:dyDescent="0.25">
-      <c r="A13" s="24" t="s">
+    <row r="13" spans="1:10" ht="21" x14ac:dyDescent="0.2">
+      <c r="A13" s="40" t="s">
         <v>25</v>
       </c>
-      <c r="B13" s="24"/>
-      <c r="C13" s="24"/>
-      <c r="D13" s="24"/>
-      <c r="E13" s="24"/>
-      <c r="F13" s="24"/>
-      <c r="H13" s="25" t="s">
+      <c r="B13" s="40"/>
+      <c r="C13" s="40"/>
+      <c r="D13" s="40"/>
+      <c r="E13" s="40"/>
+      <c r="F13" s="40"/>
+      <c r="H13" s="41" t="s">
         <v>26</v>
       </c>
-      <c r="I13" s="25"/>
-      <c r="J13" s="25"/>
-    </row>
-    <row r="14" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="I13" s="41"/>
+      <c r="J13" s="41"/>
+    </row>
+    <row r="14" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A14" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="B14" s="7" t="s">
+      <c r="B14" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="C14" s="7" t="s">
+      <c r="C14" s="6" t="s">
         <v>142</v>
       </c>
       <c r="D14" s="6" t="s">
         <v>143</v>
       </c>
-      <c r="E14" s="8" t="s">
+      <c r="E14" s="7" t="s">
         <v>144</v>
       </c>
       <c r="F14" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="H14" s="21" t="s">
+      <c r="H14" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="I14" s="22" t="s">
+      <c r="I14" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="J14" s="23" t="s">
+      <c r="J14" s="18" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="9" t="s">
+    <row r="15" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B15" s="10">
+      <c r="B15" s="2">
         <v>2</v>
       </c>
-      <c r="C15" s="10"/>
-      <c r="D15" s="11"/>
-      <c r="E15" s="12"/>
-      <c r="F15" s="13"/>
-      <c r="H15" s="15" t="s">
+      <c r="C15" s="2"/>
+      <c r="D15" s="8" t="str">
+        <f>INDEX($H$15:$H$70,MATCH(A15,$J$14:$J$70,0))</f>
+        <v>Ноутбук ASUS X75A-TY164D,  4096Mb, 750Gb, DVD-SMulti, Intel HD, WiFi, BT, WEB-Cam, noOS, 3kg, Dark Blue</v>
+      </c>
+      <c r="E15" s="11">
+        <f>INDEX($I$14:$I$70,MATCH(A15,$J$14:$J$70,0))</f>
+        <v>20475</v>
+      </c>
+      <c r="F15" s="9">
+        <f>B15*E15</f>
+        <v>40950</v>
+      </c>
+      <c r="H15" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="I15" s="16">
+      <c r="I15" s="12">
         <v>42445</v>
       </c>
-      <c r="J15" s="14" t="s">
+      <c r="J15" s="10" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="9" t="s">
+    <row r="16" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B16" s="10">
+      <c r="B16" s="2">
         <v>2</v>
       </c>
-      <c r="C16" s="10"/>
-      <c r="D16" s="11"/>
-      <c r="E16" s="12"/>
-      <c r="F16" s="13"/>
-      <c r="H16" s="15" t="s">
+      <c r="C16" s="2"/>
+      <c r="D16" s="8" t="str">
+        <f t="shared" ref="D16:D24" si="0">INDEX($H$15:$H$70,MATCH(A16,$J$14:$J$70,0))</f>
+        <v>Ноутбук HP ProBook 4545s, 4GB DDR3 1333,750GB,DVD-SM LS,15.6"HD LED AG,AMD HD7650M 2GB,VGA,HDMI,GLAN,WiFi b/g/n,BT4.0,WC HD,2xUSB3.0,2xUSB2.0,CR5in1,6cell,bag,Linux,2.47kg,Metallic Grey</v>
+      </c>
+      <c r="E16" s="11">
+        <f t="shared" ref="E16:E24" si="1">INDEX($I$14:$I$70,MATCH(A16,$J$14:$J$70,0))</f>
+        <v>34255</v>
+      </c>
+      <c r="F16" s="9">
+        <f t="shared" ref="F16:F24" si="2">B16*E16</f>
+        <v>68510</v>
+      </c>
+      <c r="H16" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="I16" s="16">
+      <c r="I16" s="12">
         <v>48360</v>
       </c>
-      <c r="J16" s="14" t="s">
+      <c r="J16" s="10" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="9" t="s">
+    <row r="17" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B17" s="10">
+      <c r="B17" s="2">
         <v>2</v>
       </c>
-      <c r="C17" s="10"/>
-      <c r="D17" s="11"/>
-      <c r="E17" s="12"/>
-      <c r="F17" s="13"/>
-      <c r="H17" s="15" t="s">
+      <c r="C17" s="2"/>
+      <c r="D17" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>Ноутбук ASUS X502CA-XX005D,  2048Mb, 320Gb, No ODD, Intel HD, BT, WiFi, WEB-Cam1.3MP, noOS, 2.07kg, Dark Blue</v>
+      </c>
+      <c r="E17" s="11">
+        <f t="shared" si="1"/>
+        <v>37375</v>
+      </c>
+      <c r="F17" s="9">
+        <f t="shared" si="2"/>
+        <v>74750</v>
+      </c>
+      <c r="H17" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="I17" s="16">
+      <c r="I17" s="12">
         <v>37375</v>
       </c>
-      <c r="J17" s="14" t="s">
+      <c r="J17" s="10" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="9" t="s">
+    <row r="18" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B18" s="10">
+      <c r="B18" s="2">
         <v>5</v>
       </c>
-      <c r="C18" s="10"/>
-      <c r="D18" s="11"/>
-      <c r="E18" s="12"/>
-      <c r="F18" s="13"/>
-      <c r="H18" s="15" t="s">
+      <c r="C18" s="2"/>
+      <c r="D18" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>Ноутбук ASUS X75VC-TY021D,  4096Mb, 500Gb, DVD-SMulti, GF GT720M 2048M, WiFi, BT, WEB-Cam, noOS, 3kg, Black</v>
+      </c>
+      <c r="E18" s="11">
+        <f t="shared" si="1"/>
+        <v>32695</v>
+      </c>
+      <c r="F18" s="9">
+        <f t="shared" si="2"/>
+        <v>163475</v>
+      </c>
+      <c r="H18" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="I18" s="16">
+      <c r="I18" s="12">
         <v>19305</v>
       </c>
-      <c r="J18" s="14" t="s">
+      <c r="J18" s="10" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="9" t="s">
+    <row r="19" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B19" s="10">
+      <c r="B19" s="2">
         <v>5</v>
       </c>
-      <c r="C19" s="10"/>
-      <c r="D19" s="11"/>
-      <c r="E19" s="12"/>
-      <c r="F19" s="13"/>
-      <c r="H19" s="15" t="s">
+      <c r="C19" s="2"/>
+      <c r="D19" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>Ноутбук ASUS X75A-TY164D,  4096Mb, 750Gb, DVD-SMulti, Intel HD, WiFi, BT, WEB-Cam, noOS, 3kg, Dark Blue</v>
+      </c>
+      <c r="E19" s="11">
+        <f t="shared" si="1"/>
+        <v>20475</v>
+      </c>
+      <c r="F19" s="9">
+        <f t="shared" si="2"/>
+        <v>102375</v>
+      </c>
+      <c r="H19" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="I19" s="16">
+      <c r="I19" s="12">
         <v>19370</v>
       </c>
-      <c r="J19" s="14" t="s">
+      <c r="J19" s="10" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="9" t="s">
+    <row r="20" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B20" s="10">
+      <c r="B20" s="2">
         <v>1</v>
       </c>
-      <c r="C20" s="10"/>
-      <c r="D20" s="11"/>
-      <c r="E20" s="12"/>
-      <c r="F20" s="13"/>
-      <c r="H20" s="15" t="s">
+      <c r="C20" s="2"/>
+      <c r="D20" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">Сумка для ноутбука 15.6" HQ-Tech EE-15232S </v>
+      </c>
+      <c r="E20" s="11">
+        <f t="shared" si="1"/>
+        <v>877.5</v>
+      </c>
+      <c r="F20" s="9">
+        <f t="shared" si="2"/>
+        <v>877.5</v>
+      </c>
+      <c r="H20" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="I20" s="16">
+      <c r="I20" s="12">
         <v>19955</v>
       </c>
-      <c r="J20" s="14" t="s">
+      <c r="J20" s="10" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="9" t="s">
+    <row r="21" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B21" s="10">
+      <c r="B21" s="2">
         <v>1</v>
       </c>
-      <c r="C21" s="10"/>
-      <c r="D21" s="11"/>
-      <c r="E21" s="12"/>
-      <c r="F21" s="13"/>
-      <c r="H21" s="15" t="s">
+      <c r="C21" s="2"/>
+      <c r="D21" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>Сумка для ноутбука 15.6" HQ-Tech  Black, Нейлон 1680D</v>
+      </c>
+      <c r="E21" s="11">
+        <f t="shared" si="1"/>
+        <v>1352</v>
+      </c>
+      <c r="F21" s="9">
+        <f t="shared" si="2"/>
+        <v>1352</v>
+      </c>
+      <c r="H21" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="I21" s="16">
+      <c r="I21" s="12">
         <v>22165</v>
       </c>
-      <c r="J21" s="14" t="s">
+      <c r="J21" s="10" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="9" t="s">
+    <row r="22" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="B22" s="10">
+      <c r="B22" s="2">
         <v>3</v>
       </c>
-      <c r="C22" s="10"/>
-      <c r="D22" s="11"/>
-      <c r="E22" s="12"/>
-      <c r="F22" s="13"/>
-      <c r="H22" s="15" t="s">
+      <c r="C22" s="2"/>
+      <c r="D22" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>Сумка для ноутбука 14.0" KRUSELL Kalix netbook Shoulderbag  Sand, иск.кожа</v>
+      </c>
+      <c r="E22" s="11">
+        <f t="shared" si="1"/>
+        <v>910</v>
+      </c>
+      <c r="F22" s="9">
+        <f t="shared" si="2"/>
+        <v>2730</v>
+      </c>
+      <c r="H22" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="I22" s="16">
+      <c r="I22" s="12">
         <v>30745</v>
       </c>
-      <c r="J22" s="14" t="s">
+      <c r="J22" s="10" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="9" t="s">
+    <row r="23" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="B23" s="10">
+      <c r="B23" s="2">
         <v>2</v>
       </c>
-      <c r="C23" s="10"/>
-      <c r="D23" s="11"/>
-      <c r="E23" s="12"/>
-      <c r="F23" s="13"/>
-      <c r="H23" s="15" t="s">
+      <c r="C23" s="2"/>
+      <c r="D23" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>Ноутбук ASUS X502CA-XX087D,  4096Mb, 500Gb, No ODD, Intel HD, BT, WiFi, WEB-Cam1.3MP, noOS, 1.8kg, Black</v>
+      </c>
+      <c r="E23" s="11">
+        <f t="shared" si="1"/>
+        <v>19955</v>
+      </c>
+      <c r="F23" s="9">
+        <f t="shared" si="2"/>
+        <v>39910</v>
+      </c>
+      <c r="H23" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="I23" s="16">
+      <c r="I23" s="12">
         <v>34775</v>
       </c>
-      <c r="J23" s="14" t="s">
+      <c r="J23" s="10" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="24" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="9" t="s">
+    <row r="24" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="B24" s="10">
+      <c r="B24" s="2">
         <v>2</v>
       </c>
-      <c r="C24" s="10"/>
-      <c r="D24" s="11"/>
-      <c r="E24" s="12"/>
-      <c r="F24" s="13"/>
-      <c r="H24" s="15" t="s">
+      <c r="C24" s="2"/>
+      <c r="D24" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">Ноутбук ASUS X550VB-XX019D, 4GB DDR3 1600,750GB,GeForce GT740M 2GB,DVD-SM,VGA,HDMI,GLAN,WiFi,BT,WC HD,USB3.0,USB2.0,CR3in1,4cell 3000mAH,DOS,2.3kg,Dark Gray </v>
+      </c>
+      <c r="E24" s="11">
+        <f t="shared" si="1"/>
+        <v>35945</v>
+      </c>
+      <c r="F24" s="9">
+        <f t="shared" si="2"/>
+        <v>71890</v>
+      </c>
+      <c r="H24" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="I24" s="16">
+      <c r="I24" s="12">
         <v>35945</v>
       </c>
-      <c r="J24" s="14" t="s">
+      <c r="J24" s="10" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="25" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="26" t="s">
+    <row r="25" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="42" t="s">
         <v>58</v>
       </c>
-      <c r="B25" s="27"/>
-      <c r="C25" s="27"/>
-      <c r="D25" s="27"/>
-      <c r="E25" s="27"/>
-      <c r="F25" s="17"/>
-      <c r="H25" s="15" t="s">
+      <c r="B25" s="43"/>
+      <c r="C25" s="43"/>
+      <c r="D25" s="43"/>
+      <c r="E25" s="43"/>
+      <c r="F25" s="13">
+        <f>SUM(F15:F24)</f>
+        <v>566819.5</v>
+      </c>
+      <c r="H25" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="I25" s="16">
+      <c r="I25" s="12">
         <v>38025</v>
       </c>
-      <c r="J25" s="14" t="s">
+      <c r="J25" s="10" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="26" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H26" s="15" t="s">
+    <row r="26" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H26" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="I26" s="16">
+      <c r="I26" s="12">
         <v>20475</v>
       </c>
-      <c r="J26" s="14" t="s">
+      <c r="J26" s="10" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="27" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H27" s="15" t="s">
+    <row r="27" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H27" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="I27" s="16">
+      <c r="I27" s="12">
         <v>29575</v>
       </c>
-      <c r="J27" s="14" t="s">
+      <c r="J27" s="10" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="28" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H28" s="15" t="s">
+    <row r="28" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H28" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="I28" s="16">
+      <c r="I28" s="12">
         <v>32695</v>
       </c>
-      <c r="J28" s="14" t="s">
+      <c r="J28" s="10" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="29" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H29" s="15" t="s">
+    <row r="29" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H29" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="I29" s="16">
+      <c r="I29" s="12">
         <v>32695</v>
       </c>
-      <c r="J29" s="14" t="s">
+      <c r="J29" s="10" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="30" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H30" s="15" t="s">
+    <row r="30" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H30" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="I30" s="16">
+      <c r="I30" s="12">
         <v>37050</v>
       </c>
-      <c r="J30" s="14" t="s">
+      <c r="J30" s="10" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="31" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H31" s="15" t="s">
+    <row r="31" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H31" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="I31" s="16">
+      <c r="I31" s="12">
         <v>37050</v>
       </c>
-      <c r="J31" s="14" t="s">
+      <c r="J31" s="10" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="32" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H32" s="15" t="s">
+    <row r="32" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H32" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="I32" s="16">
+      <c r="I32" s="12">
         <v>22815</v>
       </c>
-      <c r="J32" s="14" t="s">
+      <c r="J32" s="10" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="33" spans="8:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H33" s="15" t="s">
+    <row r="33" spans="8:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H33" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="I33" s="16">
+      <c r="I33" s="12">
         <v>27430</v>
       </c>
-      <c r="J33" s="14" t="s">
+      <c r="J33" s="10" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="34" spans="8:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H34" s="15" t="s">
+    <row r="34" spans="8:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H34" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="I34" s="16">
+      <c r="I34" s="12">
         <v>20150</v>
       </c>
-      <c r="J34" s="14" t="s">
+      <c r="J34" s="10" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="35" spans="8:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H35" s="15" t="s">
+    <row r="35" spans="8:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H35" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="I35" s="16">
+      <c r="I35" s="12">
         <v>19500</v>
       </c>
-      <c r="J35" s="14" t="s">
+      <c r="J35" s="10" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="36" spans="8:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H36" s="15" t="s">
+    <row r="36" spans="8:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H36" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="I36" s="16">
+      <c r="I36" s="12">
         <v>35100</v>
       </c>
-      <c r="J36" s="14" t="s">
+      <c r="J36" s="10" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="37" spans="8:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H37" s="15" t="s">
+    <row r="37" spans="8:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H37" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="I37" s="16">
+      <c r="I37" s="12">
         <v>39130</v>
       </c>
-      <c r="J37" s="14" t="s">
+      <c r="J37" s="10" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="38" spans="8:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H38" s="15" t="s">
+    <row r="38" spans="8:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H38" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="I38" s="16">
+      <c r="I38" s="12">
         <v>26260</v>
       </c>
-      <c r="J38" s="14" t="s">
+      <c r="J38" s="10" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="39" spans="8:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H39" s="15" t="s">
+    <row r="39" spans="8:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H39" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="I39" s="16">
+      <c r="I39" s="12">
         <v>38935</v>
       </c>
-      <c r="J39" s="14" t="s">
+      <c r="J39" s="10" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="40" spans="8:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H40" s="15" t="s">
+    <row r="40" spans="8:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H40" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="I40" s="16">
+      <c r="I40" s="12">
         <v>38675</v>
       </c>
-      <c r="J40" s="14" t="s">
+      <c r="J40" s="10" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="41" spans="8:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H41" s="15" t="s">
+    <row r="41" spans="8:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H41" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="I41" s="16">
+      <c r="I41" s="12">
         <v>38870</v>
       </c>
-      <c r="J41" s="14" t="s">
+      <c r="J41" s="10" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="42" spans="8:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H42" s="15" t="s">
+    <row r="42" spans="8:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H42" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="I42" s="16">
+      <c r="I42" s="12">
         <v>40040</v>
       </c>
-      <c r="J42" s="14" t="s">
+      <c r="J42" s="10" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="43" spans="8:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H43" s="15" t="s">
+    <row r="43" spans="8:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H43" s="11" t="s">
         <v>93</v>
       </c>
-      <c r="I43" s="16">
+      <c r="I43" s="12">
         <v>34255</v>
       </c>
-      <c r="J43" s="14" t="s">
+      <c r="J43" s="10" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="44" spans="8:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H44" s="15" t="s">
+    <row r="44" spans="8:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H44" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="I44" s="16">
+      <c r="I44" s="12">
         <v>31915</v>
       </c>
-      <c r="J44" s="14" t="s">
+      <c r="J44" s="10" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="45" spans="8:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H45" s="15" t="s">
+    <row r="45" spans="8:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H45" s="11" t="s">
         <v>97</v>
       </c>
-      <c r="I45" s="16">
+      <c r="I45" s="12">
         <v>43940</v>
       </c>
-      <c r="J45" s="14" t="s">
+      <c r="J45" s="10" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="46" spans="8:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H46" s="15" t="s">
+    <row r="46" spans="8:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H46" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="I46" s="16">
+      <c r="I46" s="12">
         <v>37505</v>
       </c>
-      <c r="J46" s="14" t="s">
+      <c r="J46" s="10" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="47" spans="8:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H47" s="15" t="s">
+    <row r="47" spans="8:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H47" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="I47" s="16">
+      <c r="I47" s="12">
         <v>910</v>
       </c>
-      <c r="J47" s="14" t="s">
+      <c r="J47" s="10" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="48" spans="8:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H48" s="15" t="s">
+    <row r="48" spans="8:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H48" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="I48" s="16">
+      <c r="I48" s="12">
         <v>1248</v>
       </c>
-      <c r="J48" s="14" t="s">
+      <c r="J48" s="10" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="49" spans="8:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H49" s="15" t="s">
+    <row r="49" spans="8:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H49" s="11" t="s">
         <v>104</v>
       </c>
-      <c r="I49" s="16">
+      <c r="I49" s="12">
         <v>682.5</v>
       </c>
-      <c r="J49" s="14" t="s">
+      <c r="J49" s="10" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="50" spans="8:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H50" s="15" t="s">
+    <row r="50" spans="8:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H50" s="11" t="s">
         <v>106</v>
       </c>
-      <c r="I50" s="16">
+      <c r="I50" s="12">
         <v>1300</v>
       </c>
-      <c r="J50" s="14" t="s">
+      <c r="J50" s="10" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="51" spans="8:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H51" s="15" t="s">
+    <row r="51" spans="8:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H51" s="11" t="s">
         <v>108</v>
       </c>
-      <c r="I51" s="16">
+      <c r="I51" s="12">
         <v>1547</v>
       </c>
-      <c r="J51" s="14" t="s">
+      <c r="J51" s="10" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="52" spans="8:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H52" s="15" t="s">
+    <row r="52" spans="8:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H52" s="11" t="s">
         <v>108</v>
       </c>
-      <c r="I52" s="16">
+      <c r="I52" s="12">
         <v>1397.5</v>
       </c>
-      <c r="J52" s="14" t="s">
+      <c r="J52" s="10" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="53" spans="8:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H53" s="15" t="s">
+    <row r="53" spans="8:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H53" s="11" t="s">
         <v>111</v>
       </c>
-      <c r="I53" s="16">
+      <c r="I53" s="12">
         <v>1397.5</v>
       </c>
-      <c r="J53" s="14" t="s">
+      <c r="J53" s="10" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="54" spans="8:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H54" s="15" t="s">
+    <row r="54" spans="8:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H54" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="I54" s="16">
+      <c r="I54" s="12">
         <v>1511.25</v>
       </c>
-      <c r="J54" s="14" t="s">
+      <c r="J54" s="10" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="55" spans="8:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H55" s="15" t="s">
+    <row r="55" spans="8:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H55" s="11" t="s">
         <v>115</v>
       </c>
-      <c r="I55" s="16">
+      <c r="I55" s="12">
         <v>1118</v>
       </c>
-      <c r="J55" s="14" t="s">
+      <c r="J55" s="10" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="56" spans="8:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H56" s="15" t="s">
+    <row r="56" spans="8:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H56" s="11" t="s">
         <v>117</v>
       </c>
-      <c r="I56" s="16">
+      <c r="I56" s="12">
         <v>4940</v>
       </c>
-      <c r="J56" s="14" t="s">
+      <c r="J56" s="10" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="57" spans="8:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H57" s="15" t="s">
+    <row r="57" spans="8:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H57" s="11" t="s">
         <v>119</v>
       </c>
-      <c r="I57" s="16">
+      <c r="I57" s="12">
         <v>1365</v>
       </c>
-      <c r="J57" s="14" t="s">
+      <c r="J57" s="10" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="58" spans="8:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H58" s="15" t="s">
+    <row r="58" spans="8:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H58" s="11" t="s">
         <v>121</v>
       </c>
-      <c r="I58" s="16">
+      <c r="I58" s="12">
         <v>1352</v>
       </c>
-      <c r="J58" s="14" t="s">
+      <c r="J58" s="10" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="59" spans="8:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H59" s="15" t="s">
+    <row r="59" spans="8:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H59" s="11" t="s">
         <v>122</v>
       </c>
-      <c r="I59" s="16">
+      <c r="I59" s="12">
         <v>1352</v>
       </c>
-      <c r="J59" s="14" t="s">
+      <c r="J59" s="10" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="60" spans="8:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H60" s="15" t="s">
+    <row r="60" spans="8:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H60" s="11" t="s">
         <v>124</v>
       </c>
-      <c r="I60" s="16">
+      <c r="I60" s="12">
         <v>1267.5</v>
       </c>
-      <c r="J60" s="14" t="s">
+      <c r="J60" s="10" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="61" spans="8:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H61" s="15" t="s">
+    <row r="61" spans="8:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H61" s="11" t="s">
         <v>126</v>
       </c>
-      <c r="I61" s="16">
+      <c r="I61" s="12">
         <v>1202.5</v>
       </c>
-      <c r="J61" s="14" t="s">
+      <c r="J61" s="10" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="62" spans="8:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H62" s="15" t="s">
+    <row r="62" spans="8:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H62" s="11" t="s">
         <v>128</v>
       </c>
-      <c r="I62" s="16">
+      <c r="I62" s="12">
         <v>1235</v>
       </c>
-      <c r="J62" s="14" t="s">
+      <c r="J62" s="10" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="63" spans="8:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H63" s="15" t="s">
+    <row r="63" spans="8:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H63" s="11" t="s">
         <v>130</v>
       </c>
-      <c r="I63" s="16">
+      <c r="I63" s="12">
         <v>1300</v>
       </c>
-      <c r="J63" s="14" t="s">
+      <c r="J63" s="10" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="64" spans="8:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H64" s="15" t="s">
+    <row r="64" spans="8:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H64" s="11" t="s">
         <v>132</v>
       </c>
-      <c r="I64" s="16">
+      <c r="I64" s="12">
         <v>1397.5</v>
       </c>
-      <c r="J64" s="14" t="s">
+      <c r="J64" s="10" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="65" spans="8:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H65" s="15" t="s">
+    <row r="65" spans="8:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H65" s="11" t="s">
         <v>134</v>
       </c>
-      <c r="I65" s="16">
+      <c r="I65" s="12">
         <v>1007.5</v>
       </c>
-      <c r="J65" s="14" t="s">
+      <c r="J65" s="10" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="66" spans="8:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H66" s="15" t="s">
+    <row r="66" spans="8:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H66" s="11" t="s">
         <v>136</v>
       </c>
-      <c r="I66" s="16">
+      <c r="I66" s="12">
         <v>910</v>
       </c>
-      <c r="J66" s="14" t="s">
+      <c r="J66" s="10" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="67" spans="8:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H67" s="15" t="s">
+    <row r="67" spans="8:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H67" s="11" t="s">
         <v>136</v>
       </c>
-      <c r="I67" s="16">
+      <c r="I67" s="12">
         <v>877.5</v>
       </c>
-      <c r="J67" s="14" t="s">
+      <c r="J67" s="10" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="68" spans="8:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H68" s="15" t="s">
+    <row r="68" spans="8:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H68" s="11" t="s">
         <v>138</v>
       </c>
-      <c r="I68" s="16">
+      <c r="I68" s="12">
         <v>1592.5</v>
       </c>
-      <c r="J68" s="14" t="s">
+      <c r="J68" s="10" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="69" spans="8:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H69" s="15" t="s">
+    <row r="69" spans="8:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H69" s="11" t="s">
         <v>140</v>
       </c>
-      <c r="I69" s="16">
+      <c r="I69" s="12">
         <v>1527.5</v>
       </c>
-      <c r="J69" s="14" t="s">
+      <c r="J69" s="10" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="70" spans="8:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H70" s="15" t="s">
+    <row r="70" spans="8:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H70" s="11" t="s">
         <v>141</v>
       </c>
-      <c r="I70" s="16">
+      <c r="I70" s="12">
         <v>780</v>
       </c>
-      <c r="J70" s="14" t="str">
-        <f t="shared" ref="J70" ca="1" si="0">CHAR(CODE("A")+RANDBETWEEN(0,15))&amp;TEXT(RANDBETWEEN(0,999),"000")</f>
-        <v>F810</v>
+      <c r="J70" s="10" t="str">
+        <f t="shared" ref="J70" ca="1" si="3">CHAR(CODE("A")+RANDBETWEEN(0,15))&amp;TEXT(RANDBETWEEN(0,999),"000")</f>
+        <v>K165</v>
       </c>
     </row>
   </sheetData>
@@ -3400,7 +3581,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <tabColor theme="7" tint="-0.249977111117893"/>
   </sheetPr>
@@ -3408,16 +3589,16 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="39.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="39.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="28" customWidth="1"/>
     <col min="4" max="4" width="26" customWidth="1"/>
-    <col min="5" max="5" width="26.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>168</v>
       </c>
@@ -3434,334 +3615,334 @@
         <v>171</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="32" t="s">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="44" t="s">
         <v>172</v>
       </c>
-      <c r="B12" s="33" t="s">
+      <c r="B12" s="23" t="s">
         <v>179</v>
       </c>
-      <c r="C12" s="28">
+      <c r="C12" s="19">
         <v>328486</v>
       </c>
       <c r="D12" s="2">
         <v>102</v>
       </c>
-      <c r="E12" s="37"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="34"/>
-      <c r="B13" s="33" t="s">
+      <c r="E12" s="24"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="45"/>
+      <c r="B13" s="23" t="s">
         <v>180</v>
       </c>
-      <c r="C13" s="28">
+      <c r="C13" s="19">
         <v>258641</v>
       </c>
       <c r="D13" s="2">
         <v>190</v>
       </c>
-      <c r="E13" s="37"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="34"/>
-      <c r="B14" s="33" t="s">
+      <c r="E13" s="24"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" s="45"/>
+      <c r="B14" s="23" t="s">
         <v>181</v>
       </c>
-      <c r="C14" s="28">
+      <c r="C14" s="19">
         <v>465888</v>
       </c>
       <c r="D14" s="2">
         <v>182</v>
       </c>
-      <c r="E14" s="37"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="35"/>
-      <c r="B15" s="33" t="s">
+      <c r="E14" s="24"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" s="46"/>
+      <c r="B15" s="23" t="s">
         <v>182</v>
       </c>
-      <c r="C15" s="28">
+      <c r="C15" s="19">
         <v>484126</v>
       </c>
       <c r="D15" s="2">
         <v>175</v>
       </c>
-      <c r="E15" s="37"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="32" t="s">
+      <c r="E15" s="24"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" s="44" t="s">
         <v>173</v>
       </c>
-      <c r="B16" s="33" t="s">
+      <c r="B16" s="23" t="s">
         <v>179</v>
       </c>
-      <c r="C16" s="28">
+      <c r="C16" s="19">
         <v>109495</v>
       </c>
       <c r="D16" s="2">
         <v>200</v>
       </c>
-      <c r="E16" s="37"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="34"/>
-      <c r="B17" s="33" t="s">
+      <c r="E16" s="24"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" s="45"/>
+      <c r="B17" s="23" t="s">
         <v>180</v>
       </c>
-      <c r="C17" s="28">
+      <c r="C17" s="19">
         <v>86214</v>
       </c>
       <c r="D17" s="2">
         <v>242</v>
       </c>
-      <c r="E17" s="37"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="34"/>
-      <c r="B18" s="33" t="s">
+      <c r="E17" s="24"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" s="45"/>
+      <c r="B18" s="23" t="s">
         <v>181</v>
       </c>
-      <c r="C18" s="28">
+      <c r="C18" s="19">
         <v>155296</v>
       </c>
       <c r="D18" s="2">
         <v>240</v>
       </c>
-      <c r="E18" s="37"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="35"/>
-      <c r="B19" s="33" t="s">
+      <c r="E18" s="24"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" s="46"/>
+      <c r="B19" s="23" t="s">
         <v>182</v>
       </c>
-      <c r="C19" s="28">
+      <c r="C19" s="19">
         <v>161375</v>
       </c>
       <c r="D19" s="2">
         <v>349</v>
       </c>
-      <c r="E19" s="37"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="32" t="s">
+      <c r="E19" s="24"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" s="44" t="s">
         <v>174</v>
       </c>
-      <c r="B20" s="33" t="s">
+      <c r="B20" s="23" t="s">
         <v>179</v>
       </c>
-      <c r="C20" s="28">
+      <c r="C20" s="19">
         <v>85567</v>
       </c>
       <c r="D20" s="2">
         <v>35</v>
       </c>
-      <c r="E20" s="37"/>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="34"/>
-      <c r="B21" s="33" t="s">
+      <c r="E20" s="24"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" s="45"/>
+      <c r="B21" s="23" t="s">
         <v>180</v>
       </c>
-      <c r="C21" s="28">
+      <c r="C21" s="19">
         <v>69770</v>
       </c>
       <c r="D21" s="2">
         <v>0</v>
       </c>
-      <c r="E21" s="37"/>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="34"/>
-      <c r="B22" s="33" t="s">
+      <c r="E21" s="24"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" s="45"/>
+      <c r="B22" s="23" t="s">
         <v>181</v>
       </c>
-      <c r="C22" s="28">
+      <c r="C22" s="19">
         <v>58962</v>
       </c>
       <c r="D22" s="2">
         <v>36</v>
       </c>
-      <c r="E22" s="37"/>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="35"/>
-      <c r="B23" s="33" t="s">
+      <c r="E22" s="24"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23" s="46"/>
+      <c r="B23" s="23" t="s">
         <v>182</v>
       </c>
-      <c r="C23" s="28">
+      <c r="C23" s="19">
         <v>72986</v>
       </c>
       <c r="D23" s="2">
         <v>44</v>
       </c>
-      <c r="E23" s="37"/>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="32" t="s">
+      <c r="E23" s="24"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24" s="44" t="s">
         <v>175</v>
       </c>
-      <c r="B24" s="33" t="s">
+      <c r="B24" s="23" t="s">
         <v>179</v>
       </c>
-      <c r="C24" s="28">
+      <c r="C24" s="19">
         <v>0</v>
       </c>
       <c r="D24" s="2">
         <v>0</v>
       </c>
-      <c r="E24" s="37"/>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="34"/>
-      <c r="B25" s="33" t="s">
+      <c r="E24" s="24"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25" s="45"/>
+      <c r="B25" s="23" t="s">
         <v>180</v>
       </c>
-      <c r="C25" s="28">
+      <c r="C25" s="19">
         <v>250000</v>
       </c>
       <c r="D25" s="2">
         <v>50</v>
       </c>
-      <c r="E25" s="37"/>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="34"/>
-      <c r="B26" s="33" t="s">
+      <c r="E25" s="24"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26" s="45"/>
+      <c r="B26" s="23" t="s">
         <v>181</v>
       </c>
-      <c r="C26" s="28">
+      <c r="C26" s="19">
         <v>0</v>
       </c>
       <c r="D26" s="2">
         <v>24</v>
       </c>
-      <c r="E26" s="37"/>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="35"/>
-      <c r="B27" s="33" t="s">
+      <c r="E26" s="24"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27" s="46"/>
+      <c r="B27" s="23" t="s">
         <v>182</v>
       </c>
-      <c r="C27" s="28">
+      <c r="C27" s="19">
         <v>0</v>
       </c>
       <c r="D27" s="2"/>
-      <c r="E27" s="37"/>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="32" t="s">
+      <c r="E27" s="24"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28" s="44" t="s">
         <v>176</v>
       </c>
-      <c r="B28" s="33" t="s">
+      <c r="B28" s="23" t="s">
         <v>179</v>
       </c>
-      <c r="C28" s="28">
+      <c r="C28" s="19">
         <v>50000</v>
       </c>
       <c r="D28" s="2">
         <v>0</v>
       </c>
-      <c r="E28" s="37"/>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="34"/>
-      <c r="B29" s="33" t="s">
+      <c r="E28" s="24"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A29" s="45"/>
+      <c r="B29" s="23" t="s">
         <v>180</v>
       </c>
-      <c r="C29" s="28">
+      <c r="C29" s="19">
         <v>55000</v>
       </c>
       <c r="D29" s="2">
         <v>30</v>
       </c>
-      <c r="E29" s="37"/>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="34"/>
-      <c r="B30" s="33" t="s">
+      <c r="E29" s="24"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A30" s="45"/>
+      <c r="B30" s="23" t="s">
         <v>181</v>
       </c>
-      <c r="C30" s="28">
+      <c r="C30" s="19">
         <v>60000</v>
       </c>
       <c r="D30" s="2">
         <v>41</v>
       </c>
-      <c r="E30" s="37"/>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="35"/>
-      <c r="B31" s="33" t="s">
+      <c r="E30" s="24"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A31" s="46"/>
+      <c r="B31" s="23" t="s">
         <v>182</v>
       </c>
-      <c r="C31" s="28">
+      <c r="C31" s="19">
         <v>65000</v>
       </c>
       <c r="D31" s="2">
         <v>37</v>
       </c>
-      <c r="E31" s="37"/>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="32" t="s">
+      <c r="E31" s="24"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A32" s="44" t="s">
         <v>177</v>
       </c>
-      <c r="B32" s="33" t="s">
+      <c r="B32" s="23" t="s">
         <v>179</v>
       </c>
-      <c r="C32" s="28">
+      <c r="C32" s="19">
         <v>212658</v>
       </c>
-      <c r="D32" s="36"/>
-      <c r="E32" s="37"/>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="34"/>
-      <c r="B33" s="33" t="s">
+      <c r="D32" s="2"/>
+      <c r="E32" s="24"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A33" s="45"/>
+      <c r="B33" s="23" t="s">
         <v>180</v>
       </c>
-      <c r="C33" s="28">
+      <c r="C33" s="19">
         <v>243023</v>
       </c>
-      <c r="D33" s="36">
+      <c r="D33" s="2">
         <v>122</v>
       </c>
-      <c r="E33" s="37"/>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="34"/>
-      <c r="B34" s="33" t="s">
+      <c r="E33" s="24"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A34" s="45"/>
+      <c r="B34" s="23" t="s">
         <v>181</v>
       </c>
-      <c r="C34" s="28">
+      <c r="C34" s="19">
         <v>225109</v>
       </c>
-      <c r="D34" s="36">
+      <c r="D34" s="2">
         <v>113</v>
       </c>
-      <c r="E34" s="37"/>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="35"/>
-      <c r="B35" s="33" t="s">
+      <c r="E34" s="24"/>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A35" s="46"/>
+      <c r="B35" s="23" t="s">
         <v>182</v>
       </c>
-      <c r="C35" s="28">
+      <c r="C35" s="19">
         <v>269189</v>
       </c>
-      <c r="D35" s="36">
+      <c r="D35" s="2">
         <v>135</v>
       </c>
-      <c r="E35" s="37"/>
+      <c r="E35" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="A32:A35"/>
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="A16:A19"/>
     <mergeCell ref="A20:A23"/>
     <mergeCell ref="A24:A27"/>
     <mergeCell ref="A28:A31"/>
-    <mergeCell ref="A32:A35"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -3769,7 +3950,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <tabColor theme="7" tint="-0.249977111117893"/>
   </sheetPr>
@@ -3777,27 +3958,27 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.83203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="11" spans="1:7" ht="21" x14ac:dyDescent="0.25">
-      <c r="A11" s="39" t="s">
+    <row r="11" spans="1:7" ht="21" x14ac:dyDescent="0.2">
+      <c r="A11" s="47" t="s">
         <v>25</v>
       </c>
-      <c r="B11" s="40"/>
-      <c r="C11" s="40"/>
-      <c r="F11" s="25" t="s">
+      <c r="B11" s="48"/>
+      <c r="C11" s="48"/>
+      <c r="F11" s="41" t="s">
         <v>26</v>
       </c>
-      <c r="G11" s="25"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G11" s="41"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>145</v>
       </c>
@@ -3807,14 +3988,14 @@
       <c r="C12" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F12" s="30" t="s">
+      <c r="F12" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="G12" s="30" t="s">
+      <c r="G12" s="21" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>1</v>
       </c>
@@ -3822,14 +4003,14 @@
         <v>157</v>
       </c>
       <c r="C13" s="2"/>
-      <c r="F13" s="29" t="s">
+      <c r="F13" s="20" t="s">
         <v>153</v>
       </c>
-      <c r="G13" s="29">
+      <c r="G13" s="20">
         <v>72</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <v>2</v>
       </c>
@@ -3837,14 +4018,14 @@
         <v>163</v>
       </c>
       <c r="C14" s="2"/>
-      <c r="F14" s="29" t="s">
+      <c r="F14" s="20" t="s">
         <v>154</v>
       </c>
-      <c r="G14" s="29">
+      <c r="G14" s="20">
         <v>264</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
         <v>3</v>
       </c>
@@ -3852,14 +4033,14 @@
         <v>158</v>
       </c>
       <c r="C15" s="2"/>
-      <c r="F15" s="29" t="s">
+      <c r="F15" s="20" t="s">
         <v>164</v>
       </c>
-      <c r="G15" s="29">
+      <c r="G15" s="20">
         <v>105</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
         <v>4</v>
       </c>
@@ -3867,14 +4048,14 @@
         <v>160</v>
       </c>
       <c r="C16" s="2"/>
-      <c r="F16" s="29" t="s">
+      <c r="F16" s="20" t="s">
         <v>155</v>
       </c>
-      <c r="G16" s="29">
+      <c r="G16" s="20">
         <v>53</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
         <v>5</v>
       </c>
@@ -3882,14 +4063,14 @@
         <v>167</v>
       </c>
       <c r="C17" s="2"/>
-      <c r="F17" s="29" t="s">
+      <c r="F17" s="20" t="s">
         <v>165</v>
       </c>
-      <c r="G17" s="29">
+      <c r="G17" s="20">
         <v>160</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
         <v>6</v>
       </c>
@@ -3897,14 +4078,14 @@
         <v>165</v>
       </c>
       <c r="C18" s="2"/>
-      <c r="F18" s="29" t="s">
+      <c r="F18" s="20" t="s">
         <v>156</v>
       </c>
-      <c r="G18" s="29">
+      <c r="G18" s="20">
         <v>95</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
         <v>7</v>
       </c>
@@ -3912,14 +4093,14 @@
         <v>154</v>
       </c>
       <c r="C19" s="2"/>
-      <c r="F19" s="29" t="s">
+      <c r="F19" s="20" t="s">
         <v>157</v>
       </c>
-      <c r="G19" s="29">
+      <c r="G19" s="20">
         <v>110</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
         <v>8</v>
       </c>
@@ -3927,14 +4108,14 @@
         <v>159</v>
       </c>
       <c r="C20" s="2"/>
-      <c r="F20" s="29" t="s">
+      <c r="F20" s="20" t="s">
         <v>158</v>
       </c>
-      <c r="G20" s="29">
+      <c r="G20" s="20">
         <v>102</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
         <v>9</v>
       </c>
@@ -3942,14 +4123,14 @@
         <v>153</v>
       </c>
       <c r="C21" s="2"/>
-      <c r="F21" s="29" t="s">
+      <c r="F21" s="20" t="s">
         <v>160</v>
       </c>
-      <c r="G21" s="29">
+      <c r="G21" s="20">
         <v>122</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
         <v>10</v>
       </c>
@@ -3957,34 +4138,34 @@
         <v>161</v>
       </c>
       <c r="C22" s="2"/>
-      <c r="F22" s="29" t="s">
+      <c r="F22" s="20" t="s">
         <v>161</v>
       </c>
-      <c r="G22" s="29">
+      <c r="G22" s="20">
         <v>88</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="F23" s="29" t="s">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F23" s="20" t="s">
         <v>162</v>
       </c>
-      <c r="G23" s="29">
+      <c r="G23" s="20">
         <v>117</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B24" s="41" t="s">
+    <row r="24" spans="1:7" ht="19" x14ac:dyDescent="0.2">
+      <c r="B24" s="26" t="s">
         <v>166</v>
       </c>
-      <c r="F24" s="29" t="s">
+      <c r="F24" s="20" t="s">
         <v>163</v>
       </c>
-      <c r="G24" s="29">
+      <c r="G24" s="20">
         <v>44</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="F13:G24">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="F13:G24">
     <sortCondition ref="F13:F24"/>
   </sortState>
   <mergeCells count="2">
@@ -3997,7 +4178,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr>
     <tabColor theme="3" tint="0.39997558519241921"/>
   </sheetPr>
@@ -4007,14 +4188,14 @@
       <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>145</v>
       </c>
@@ -4025,7 +4206,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <v>1</v>
       </c>
@@ -4034,7 +4215,7 @@
       </c>
       <c r="C14" s="2"/>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
         <v>2</v>
       </c>
@@ -4043,7 +4224,7 @@
       </c>
       <c r="C15" s="2"/>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
         <v>3</v>
       </c>
@@ -4052,7 +4233,7 @@
       </c>
       <c r="C16" s="2"/>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
         <v>4</v>
       </c>
@@ -4061,7 +4242,7 @@
       </c>
       <c r="C17" s="2"/>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
         <v>5</v>
       </c>
@@ -4070,7 +4251,7 @@
       </c>
       <c r="C18" s="2"/>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
         <v>6</v>
       </c>
@@ -4079,7 +4260,7 @@
       </c>
       <c r="C19" s="2"/>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
         <v>7</v>
       </c>
@@ -4088,7 +4269,7 @@
       </c>
       <c r="C20" s="2"/>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
         <v>8</v>
       </c>
@@ -4097,7 +4278,7 @@
       </c>
       <c r="C21" s="2"/>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
         <v>9</v>
       </c>
@@ -4106,7 +4287,7 @@
       </c>
       <c r="C22" s="2"/>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="2">
         <v>10</v>
       </c>
@@ -4115,7 +4296,7 @@
       </c>
       <c r="C23" s="2"/>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" s="2">
         <v>11</v>
       </c>
@@ -4124,7 +4305,7 @@
       </c>
       <c r="C24" s="2"/>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" s="2">
         <v>12</v>
       </c>
@@ -4133,7 +4314,7 @@
       </c>
       <c r="C25" s="2"/>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" s="2">
         <v>13</v>
       </c>
@@ -4142,7 +4323,7 @@
       </c>
       <c r="C26" s="2"/>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" s="2">
         <v>14</v>
       </c>
@@ -4151,7 +4332,7 @@
       </c>
       <c r="C27" s="2"/>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" s="2">
         <v>15</v>
       </c>
@@ -4167,7 +4348,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr>
     <tabColor theme="6" tint="-0.249977111117893"/>
   </sheetPr>
@@ -4177,15 +4358,15 @@
       <selection activeCell="J40" sqref="J40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.85546875" customWidth="1"/>
-    <col min="4" max="4" width="16.42578125" customWidth="1"/>
-    <col min="8" max="8" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.83203125" customWidth="1"/>
+    <col min="4" max="4" width="16.5" customWidth="1"/>
+    <col min="8" max="8" width="17.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B11" s="1" t="s">
         <v>147</v>
       </c>
@@ -4195,119 +4376,119 @@
       <c r="D11" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="H11" s="42" t="s">
+      <c r="H11" s="27" t="s">
         <v>150</v>
       </c>
-      <c r="I11" s="43">
+      <c r="I11" s="28">
         <v>75</v>
       </c>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B12" s="28">
+    <row r="12" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B12" s="19">
         <v>217465</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" s="4"/>
-      <c r="H12" s="42" t="s">
+      <c r="H12" s="27" t="s">
         <v>151</v>
       </c>
-      <c r="I12" s="43">
+      <c r="I12" s="28">
         <v>85</v>
       </c>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B13" s="28">
+    <row r="13" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B13" s="19">
         <v>52472</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" s="4"/>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B14" s="28">
+    <row r="14" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B14" s="19">
         <v>124018</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" s="4"/>
     </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B15" s="28">
+    <row r="15" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B15" s="19">
         <v>24566</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" s="4"/>
     </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B16" s="28">
+    <row r="16" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B16" s="19">
         <v>67518</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" s="4"/>
     </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B17" s="28">
+    <row r="17" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B17" s="19">
         <v>165611</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" s="4"/>
     </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B18" s="28">
+    <row r="18" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B18" s="19">
         <v>156409</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" s="4"/>
     </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B19" s="28">
+    <row r="19" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B19" s="19">
         <v>123626</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" s="4"/>
     </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B20" s="28">
+    <row r="20" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B20" s="19">
         <v>94914</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" s="4"/>
     </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B21" s="28">
+    <row r="21" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B21" s="19">
         <v>168580</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" s="4"/>
     </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B22" s="28">
+    <row r="22" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B22" s="19">
         <v>50998</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" s="4"/>
     </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B23" s="28">
+    <row r="23" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B23" s="19">
         <v>74350</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" s="4"/>
     </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B24" s="28">
+    <row r="24" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B24" s="19">
         <v>127859</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" s="4"/>
     </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B25" s="28">
+    <row r="25" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B25" s="19">
         <v>184966</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" s="4"/>
     </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B26" s="28">
+    <row r="26" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B26" s="19">
         <v>169251</v>
       </c>
       <c r="C26" s="2"/>
@@ -4320,7 +4501,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr>
     <tabColor theme="6" tint="-0.249977111117893"/>
   </sheetPr>
@@ -4328,17 +4509,17 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.140625" style="38" customWidth="1"/>
-    <col min="2" max="3" width="21.140625" style="38" customWidth="1"/>
-    <col min="4" max="4" width="20.28515625" style="38" customWidth="1"/>
-    <col min="8" max="8" width="9.140625" style="57"/>
-    <col min="9" max="9" width="19" style="38" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="19" style="56" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.1640625" style="25" customWidth="1"/>
+    <col min="2" max="3" width="21.1640625" style="25" customWidth="1"/>
+    <col min="4" max="4" width="20.33203125" style="25" customWidth="1"/>
+    <col min="8" max="8" width="9.1640625" style="38"/>
+    <col min="9" max="9" width="19" style="25" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19" style="39" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>0</v>
       </c>
@@ -4351,1200 +4532,1200 @@
       <c r="D15" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="G15" s="44" t="s">
+      <c r="G15" s="29" t="s">
         <v>183</v>
       </c>
-      <c r="H15" s="45" t="s">
+      <c r="H15" s="30" t="s">
         <v>146</v>
       </c>
-      <c r="I15" s="46" t="s">
+      <c r="I15" s="31" t="s">
         <v>184</v>
       </c>
-      <c r="J15" s="47" t="s">
+      <c r="J15" s="32" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="31">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A16" s="22">
         <v>1</v>
       </c>
-      <c r="B16" s="31" t="s">
+      <c r="B16" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="C16" s="31" t="s">
+      <c r="C16" s="22" t="s">
         <v>186</v>
       </c>
-      <c r="D16" s="48">
+      <c r="D16" s="33">
         <v>1650</v>
       </c>
-      <c r="G16" s="49" t="s">
+      <c r="G16" s="34" t="s">
         <v>22</v>
       </c>
-      <c r="H16" s="50" t="s">
+      <c r="H16" s="35" t="s">
         <v>187</v>
       </c>
-      <c r="I16" s="51"/>
-      <c r="J16" s="52"/>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="31">
+      <c r="I16" s="36"/>
+      <c r="J16" s="37"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A17" s="22">
         <v>2</v>
       </c>
-      <c r="B17" s="31" t="s">
+      <c r="B17" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="C17" s="31" t="s">
+      <c r="C17" s="22" t="s">
         <v>187</v>
       </c>
-      <c r="D17" s="48">
+      <c r="D17" s="33">
         <v>1650</v>
       </c>
-      <c r="G17" s="49" t="s">
+      <c r="G17" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="H17" s="50" t="s">
+      <c r="H17" s="35" t="s">
         <v>186</v>
       </c>
-      <c r="I17" s="51"/>
-      <c r="J17" s="52"/>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="31">
+      <c r="I17" s="36"/>
+      <c r="J17" s="37"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A18" s="22">
         <v>3</v>
       </c>
-      <c r="B18" s="31" t="s">
+      <c r="B18" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="C18" s="31" t="s">
+      <c r="C18" s="22" t="s">
         <v>187</v>
       </c>
-      <c r="D18" s="48">
+      <c r="D18" s="33">
         <v>1800</v>
       </c>
-      <c r="G18" s="49" t="s">
+      <c r="G18" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="H18" s="50" t="s">
+      <c r="H18" s="35" t="s">
         <v>188</v>
       </c>
-      <c r="I18" s="51"/>
-      <c r="J18" s="52"/>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="31">
+      <c r="I18" s="36"/>
+      <c r="J18" s="37"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A19" s="22">
         <v>4</v>
       </c>
-      <c r="B19" s="31" t="s">
+      <c r="B19" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="C19" s="31" t="s">
+      <c r="C19" s="22" t="s">
         <v>188</v>
       </c>
-      <c r="D19" s="48">
+      <c r="D19" s="33">
         <v>4400</v>
       </c>
-      <c r="G19" s="49" t="s">
+      <c r="G19" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="H19" s="50" t="s">
+      <c r="H19" s="35" t="s">
         <v>186</v>
       </c>
-      <c r="I19" s="51"/>
-      <c r="J19" s="52"/>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="31">
+      <c r="I19" s="36"/>
+      <c r="J19" s="37"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A20" s="22">
         <v>5</v>
       </c>
-      <c r="B20" s="31" t="s">
+      <c r="B20" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="C20" s="31" t="s">
+      <c r="C20" s="22" t="s">
         <v>186</v>
       </c>
-      <c r="D20" s="48">
+      <c r="D20" s="33">
         <v>3300</v>
       </c>
-      <c r="G20" s="49" t="s">
+      <c r="G20" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="H20" s="50" t="s">
+      <c r="H20" s="35" t="s">
         <v>187</v>
       </c>
-      <c r="I20" s="51"/>
-      <c r="J20" s="52"/>
-    </row>
-    <row r="21" spans="1:10" s="56" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="31">
+      <c r="I20" s="36"/>
+      <c r="J20" s="37"/>
+    </row>
+    <row r="21" spans="1:10" s="39" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="22">
         <v>6</v>
       </c>
-      <c r="B21" s="31" t="s">
+      <c r="B21" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="C21" s="31" t="s">
+      <c r="C21" s="22" t="s">
         <v>186</v>
       </c>
-      <c r="D21" s="48">
+      <c r="D21" s="33">
         <v>3300</v>
       </c>
       <c r="E21"/>
       <c r="F21"/>
-      <c r="G21" s="53"/>
-      <c r="H21" s="54"/>
-      <c r="I21" s="55"/>
-    </row>
-    <row r="22" spans="1:10" s="56" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="31">
+      <c r="G21"/>
+      <c r="H21" s="38"/>
+      <c r="I21" s="25"/>
+    </row>
+    <row r="22" spans="1:10" s="39" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="22">
         <v>7</v>
       </c>
-      <c r="B22" s="31" t="s">
+      <c r="B22" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="C22" s="31" t="s">
+      <c r="C22" s="22" t="s">
         <v>187</v>
       </c>
-      <c r="D22" s="48">
+      <c r="D22" s="33">
         <v>4050</v>
       </c>
       <c r="E22"/>
       <c r="F22"/>
-      <c r="G22" s="53"/>
-      <c r="H22" s="57"/>
-      <c r="I22" s="38"/>
-    </row>
-    <row r="23" spans="1:10" s="56" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="31">
+      <c r="G22"/>
+      <c r="H22" s="38"/>
+      <c r="I22" s="25"/>
+    </row>
+    <row r="23" spans="1:10" s="39" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="22">
         <v>8</v>
       </c>
-      <c r="B23" s="31" t="s">
+      <c r="B23" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="C23" s="31" t="s">
+      <c r="C23" s="22" t="s">
         <v>186</v>
       </c>
-      <c r="D23" s="48">
+      <c r="D23" s="33">
         <v>3400</v>
       </c>
       <c r="E23"/>
       <c r="F23"/>
-      <c r="G23" s="53"/>
-      <c r="H23" s="57"/>
-      <c r="I23" s="38"/>
-    </row>
-    <row r="24" spans="1:10" s="56" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="31">
+      <c r="G23"/>
+      <c r="H23" s="38"/>
+      <c r="I23" s="25"/>
+    </row>
+    <row r="24" spans="1:10" s="39" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="22">
         <v>9</v>
       </c>
-      <c r="B24" s="31" t="s">
+      <c r="B24" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="C24" s="31" t="s">
+      <c r="C24" s="22" t="s">
         <v>188</v>
       </c>
-      <c r="D24" s="48">
+      <c r="D24" s="33">
         <v>500</v>
       </c>
       <c r="E24"/>
       <c r="F24"/>
       <c r="G24"/>
-      <c r="H24" s="57"/>
-      <c r="I24" s="38"/>
-    </row>
-    <row r="25" spans="1:10" s="56" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="31">
+      <c r="H24" s="38"/>
+      <c r="I24" s="25"/>
+    </row>
+    <row r="25" spans="1:10" s="39" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="22">
         <v>10</v>
       </c>
-      <c r="B25" s="31" t="s">
+      <c r="B25" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="C25" s="31" t="s">
+      <c r="C25" s="22" t="s">
         <v>188</v>
       </c>
-      <c r="D25" s="48">
+      <c r="D25" s="33">
         <v>3400</v>
       </c>
       <c r="E25"/>
       <c r="F25"/>
       <c r="G25"/>
-      <c r="H25" s="57"/>
-      <c r="I25" s="38"/>
-    </row>
-    <row r="26" spans="1:10" s="56" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="31">
+      <c r="H25" s="38"/>
+      <c r="I25" s="25"/>
+    </row>
+    <row r="26" spans="1:10" s="39" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="22">
         <v>11</v>
       </c>
-      <c r="B26" s="31" t="s">
+      <c r="B26" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="C26" s="31" t="s">
+      <c r="C26" s="22" t="s">
         <v>186</v>
       </c>
-      <c r="D26" s="48">
+      <c r="D26" s="33">
         <v>4100</v>
       </c>
       <c r="E26"/>
       <c r="F26"/>
       <c r="G26"/>
-      <c r="H26" s="57"/>
-      <c r="I26" s="38"/>
-    </row>
-    <row r="27" spans="1:10" s="56" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="31">
+      <c r="H26" s="38"/>
+      <c r="I26" s="25"/>
+    </row>
+    <row r="27" spans="1:10" s="39" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="22">
         <v>12</v>
       </c>
-      <c r="B27" s="31" t="s">
+      <c r="B27" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="C27" s="31" t="s">
+      <c r="C27" s="22" t="s">
         <v>188</v>
       </c>
-      <c r="D27" s="48">
+      <c r="D27" s="33">
         <v>3350</v>
       </c>
       <c r="E27"/>
       <c r="F27"/>
       <c r="G27"/>
-      <c r="H27" s="57"/>
-      <c r="I27" s="38"/>
-    </row>
-    <row r="28" spans="1:10" s="56" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="31">
+      <c r="H27" s="38"/>
+      <c r="I27" s="25"/>
+    </row>
+    <row r="28" spans="1:10" s="39" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="22">
         <v>13</v>
       </c>
-      <c r="B28" s="31" t="s">
+      <c r="B28" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="C28" s="31" t="s">
+      <c r="C28" s="22" t="s">
         <v>188</v>
       </c>
-      <c r="D28" s="48">
+      <c r="D28" s="33">
         <v>900</v>
       </c>
       <c r="E28"/>
       <c r="F28"/>
       <c r="G28"/>
-      <c r="H28" s="57"/>
-      <c r="I28" s="38"/>
-    </row>
-    <row r="29" spans="1:10" s="56" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="31">
+      <c r="H28" s="38"/>
+      <c r="I28" s="25"/>
+    </row>
+    <row r="29" spans="1:10" s="39" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="22">
         <v>14</v>
       </c>
-      <c r="B29" s="31" t="s">
+      <c r="B29" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="C29" s="31" t="s">
+      <c r="C29" s="22" t="s">
         <v>188</v>
       </c>
-      <c r="D29" s="48">
+      <c r="D29" s="33">
         <v>2500</v>
       </c>
       <c r="E29"/>
       <c r="F29"/>
       <c r="G29"/>
-      <c r="H29" s="57"/>
-      <c r="I29" s="38"/>
-    </row>
-    <row r="30" spans="1:10" s="56" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="31">
+      <c r="H29" s="38"/>
+      <c r="I29" s="25"/>
+    </row>
+    <row r="30" spans="1:10" s="39" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="22">
         <v>15</v>
       </c>
-      <c r="B30" s="31" t="s">
+      <c r="B30" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="C30" s="31" t="s">
+      <c r="C30" s="22" t="s">
         <v>186</v>
       </c>
-      <c r="D30" s="48">
+      <c r="D30" s="33">
         <v>4100</v>
       </c>
       <c r="E30"/>
       <c r="F30"/>
       <c r="G30"/>
-      <c r="H30" s="57"/>
-      <c r="I30" s="38"/>
-    </row>
-    <row r="31" spans="1:10" s="56" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="31">
+      <c r="H30" s="38"/>
+      <c r="I30" s="25"/>
+    </row>
+    <row r="31" spans="1:10" s="39" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="22">
         <v>16</v>
       </c>
-      <c r="B31" s="31" t="s">
+      <c r="B31" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="C31" s="31" t="s">
+      <c r="C31" s="22" t="s">
         <v>186</v>
       </c>
-      <c r="D31" s="48">
+      <c r="D31" s="33">
         <v>4000</v>
       </c>
       <c r="E31"/>
       <c r="F31"/>
       <c r="G31"/>
-      <c r="H31" s="57"/>
-      <c r="I31" s="38"/>
-    </row>
-    <row r="32" spans="1:10" s="56" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="31">
+      <c r="H31" s="38"/>
+      <c r="I31" s="25"/>
+    </row>
+    <row r="32" spans="1:10" s="39" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="22">
         <v>17</v>
       </c>
-      <c r="B32" s="31" t="s">
+      <c r="B32" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="C32" s="31" t="s">
+      <c r="C32" s="22" t="s">
         <v>188</v>
       </c>
-      <c r="D32" s="48">
+      <c r="D32" s="33">
         <v>4300</v>
       </c>
       <c r="E32"/>
       <c r="F32"/>
       <c r="G32"/>
-      <c r="H32" s="57"/>
-      <c r="I32" s="38"/>
-    </row>
-    <row r="33" spans="1:9" s="56" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="31">
+      <c r="H32" s="38"/>
+      <c r="I32" s="25"/>
+    </row>
+    <row r="33" spans="1:9" s="39" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="22">
         <v>18</v>
       </c>
-      <c r="B33" s="31" t="s">
+      <c r="B33" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="C33" s="31" t="s">
+      <c r="C33" s="22" t="s">
         <v>187</v>
       </c>
-      <c r="D33" s="48">
+      <c r="D33" s="33">
         <v>2000</v>
       </c>
       <c r="E33"/>
       <c r="F33"/>
       <c r="G33"/>
-      <c r="H33" s="57"/>
-      <c r="I33" s="38"/>
-    </row>
-    <row r="34" spans="1:9" s="56" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="31">
+      <c r="H33" s="38"/>
+      <c r="I33" s="25"/>
+    </row>
+    <row r="34" spans="1:9" s="39" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="22">
         <v>19</v>
       </c>
-      <c r="B34" s="31" t="s">
+      <c r="B34" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="C34" s="31" t="s">
+      <c r="C34" s="22" t="s">
         <v>186</v>
       </c>
-      <c r="D34" s="48">
+      <c r="D34" s="33">
         <v>1900</v>
       </c>
       <c r="E34"/>
       <c r="F34"/>
       <c r="G34"/>
-      <c r="H34" s="57"/>
-      <c r="I34" s="38"/>
-    </row>
-    <row r="35" spans="1:9" s="56" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="31">
+      <c r="H34" s="38"/>
+      <c r="I34" s="25"/>
+    </row>
+    <row r="35" spans="1:9" s="39" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="22">
         <v>20</v>
       </c>
-      <c r="B35" s="31" t="s">
+      <c r="B35" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="C35" s="31" t="s">
+      <c r="C35" s="22" t="s">
         <v>187</v>
       </c>
-      <c r="D35" s="48">
+      <c r="D35" s="33">
         <v>2550</v>
       </c>
       <c r="E35"/>
       <c r="F35"/>
       <c r="G35"/>
-      <c r="H35" s="57"/>
-      <c r="I35" s="38"/>
-    </row>
-    <row r="36" spans="1:9" s="56" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="31">
+      <c r="H35" s="38"/>
+      <c r="I35" s="25"/>
+    </row>
+    <row r="36" spans="1:9" s="39" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="22">
         <v>21</v>
       </c>
-      <c r="B36" s="31" t="s">
+      <c r="B36" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="C36" s="31" t="s">
+      <c r="C36" s="22" t="s">
         <v>188</v>
       </c>
-      <c r="D36" s="48">
+      <c r="D36" s="33">
         <v>4000</v>
       </c>
       <c r="E36"/>
       <c r="F36"/>
       <c r="G36"/>
-      <c r="H36" s="57"/>
-      <c r="I36" s="38"/>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A37" s="31">
+      <c r="H36" s="38"/>
+      <c r="I36" s="25"/>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A37" s="22">
         <v>22</v>
       </c>
-      <c r="B37" s="31" t="s">
+      <c r="B37" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="C37" s="31" t="s">
+      <c r="C37" s="22" t="s">
         <v>186</v>
       </c>
-      <c r="D37" s="48">
+      <c r="D37" s="33">
         <v>1700</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A38" s="31">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A38" s="22">
         <v>23</v>
       </c>
-      <c r="B38" s="31" t="s">
+      <c r="B38" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="C38" s="31" t="s">
+      <c r="C38" s="22" t="s">
         <v>187</v>
       </c>
-      <c r="D38" s="48">
+      <c r="D38" s="33">
         <v>2450</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A39" s="31">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A39" s="22">
         <v>24</v>
       </c>
-      <c r="B39" s="31" t="s">
+      <c r="B39" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="C39" s="31" t="s">
+      <c r="C39" s="22" t="s">
         <v>188</v>
       </c>
-      <c r="D39" s="48">
+      <c r="D39" s="33">
         <v>2150</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A40" s="31">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A40" s="22">
         <v>25</v>
       </c>
-      <c r="B40" s="31" t="s">
+      <c r="B40" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="C40" s="31" t="s">
+      <c r="C40" s="22" t="s">
         <v>187</v>
       </c>
-      <c r="D40" s="48">
+      <c r="D40" s="33">
         <v>50</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A41" s="31">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A41" s="22">
         <v>26</v>
       </c>
-      <c r="B41" s="31" t="s">
+      <c r="B41" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="C41" s="31" t="s">
+      <c r="C41" s="22" t="s">
         <v>188</v>
       </c>
-      <c r="D41" s="48">
+      <c r="D41" s="33">
         <v>2150</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A42" s="31">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A42" s="22">
         <v>27</v>
       </c>
-      <c r="B42" s="31" t="s">
+      <c r="B42" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="C42" s="31" t="s">
+      <c r="C42" s="22" t="s">
         <v>188</v>
       </c>
-      <c r="D42" s="48">
+      <c r="D42" s="33">
         <v>2150</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A43" s="31">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A43" s="22">
         <v>28</v>
       </c>
-      <c r="B43" s="31" t="s">
+      <c r="B43" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="C43" s="31" t="s">
+      <c r="C43" s="22" t="s">
         <v>187</v>
       </c>
-      <c r="D43" s="48">
+      <c r="D43" s="33">
         <v>1400</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A44" s="31">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A44" s="22">
         <v>29</v>
       </c>
-      <c r="B44" s="31" t="s">
+      <c r="B44" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="C44" s="31" t="s">
+      <c r="C44" s="22" t="s">
         <v>186</v>
       </c>
-      <c r="D44" s="48">
+      <c r="D44" s="33">
         <v>150</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A45" s="31">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A45" s="22">
         <v>30</v>
       </c>
-      <c r="B45" s="31" t="s">
+      <c r="B45" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="C45" s="31" t="s">
+      <c r="C45" s="22" t="s">
         <v>186</v>
       </c>
-      <c r="D45" s="48">
+      <c r="D45" s="33">
         <v>500</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A46" s="31">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A46" s="22">
         <v>31</v>
       </c>
-      <c r="B46" s="31" t="s">
+      <c r="B46" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="C46" s="31" t="s">
+      <c r="C46" s="22" t="s">
         <v>188</v>
       </c>
-      <c r="D46" s="48">
+      <c r="D46" s="33">
         <v>1400</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A47" s="31">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A47" s="22">
         <v>32</v>
       </c>
-      <c r="B47" s="31" t="s">
+      <c r="B47" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="C47" s="31" t="s">
+      <c r="C47" s="22" t="s">
         <v>188</v>
       </c>
-      <c r="D47" s="48">
+      <c r="D47" s="33">
         <v>1650</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A48" s="31">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A48" s="22">
         <v>33</v>
       </c>
-      <c r="B48" s="31" t="s">
+      <c r="B48" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="C48" s="31" t="s">
+      <c r="C48" s="22" t="s">
         <v>186</v>
       </c>
-      <c r="D48" s="48">
+      <c r="D48" s="33">
         <v>600</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" s="31">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A49" s="22">
         <v>34</v>
       </c>
-      <c r="B49" s="31" t="s">
+      <c r="B49" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="C49" s="31" t="s">
+      <c r="C49" s="22" t="s">
         <v>186</v>
       </c>
-      <c r="D49" s="48">
+      <c r="D49" s="33">
         <v>1150</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" s="31">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A50" s="22">
         <v>35</v>
       </c>
-      <c r="B50" s="31" t="s">
+      <c r="B50" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="C50" s="31" t="s">
+      <c r="C50" s="22" t="s">
         <v>186</v>
       </c>
-      <c r="D50" s="48">
+      <c r="D50" s="33">
         <v>4600</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51" s="31">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A51" s="22">
         <v>36</v>
       </c>
-      <c r="B51" s="31" t="s">
+      <c r="B51" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="C51" s="31" t="s">
+      <c r="C51" s="22" t="s">
         <v>186</v>
       </c>
-      <c r="D51" s="48">
+      <c r="D51" s="33">
         <v>2450</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A52" s="31">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A52" s="22">
         <v>37</v>
       </c>
-      <c r="B52" s="31" t="s">
+      <c r="B52" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="C52" s="31" t="s">
+      <c r="C52" s="22" t="s">
         <v>187</v>
       </c>
-      <c r="D52" s="48">
+      <c r="D52" s="33">
         <v>4000</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53" s="31">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A53" s="22">
         <v>38</v>
       </c>
-      <c r="B53" s="31" t="s">
+      <c r="B53" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="C53" s="31" t="s">
+      <c r="C53" s="22" t="s">
         <v>188</v>
       </c>
-      <c r="D53" s="48">
+      <c r="D53" s="33">
         <v>2400</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A54" s="31">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A54" s="22">
         <v>39</v>
       </c>
-      <c r="B54" s="31" t="s">
+      <c r="B54" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="C54" s="31" t="s">
+      <c r="C54" s="22" t="s">
         <v>187</v>
       </c>
-      <c r="D54" s="48">
+      <c r="D54" s="33">
         <v>250</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A55" s="31">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A55" s="22">
         <v>40</v>
       </c>
-      <c r="B55" s="31" t="s">
+      <c r="B55" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="C55" s="31" t="s">
+      <c r="C55" s="22" t="s">
         <v>187</v>
       </c>
-      <c r="D55" s="48">
+      <c r="D55" s="33">
         <v>2350</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A56" s="31">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A56" s="22">
         <v>41</v>
       </c>
-      <c r="B56" s="31" t="s">
+      <c r="B56" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="C56" s="31" t="s">
+      <c r="C56" s="22" t="s">
         <v>186</v>
       </c>
-      <c r="D56" s="48">
+      <c r="D56" s="33">
         <v>3300</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A57" s="31">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A57" s="22">
         <v>42</v>
       </c>
-      <c r="B57" s="31" t="s">
+      <c r="B57" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="C57" s="31" t="s">
+      <c r="C57" s="22" t="s">
         <v>187</v>
       </c>
-      <c r="D57" s="48">
+      <c r="D57" s="33">
         <v>1500</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A58" s="31">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A58" s="22">
         <v>43</v>
       </c>
-      <c r="B58" s="31" t="s">
+      <c r="B58" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="C58" s="31" t="s">
+      <c r="C58" s="22" t="s">
         <v>186</v>
       </c>
-      <c r="D58" s="48">
+      <c r="D58" s="33">
         <v>450</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A59" s="31">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A59" s="22">
         <v>44</v>
       </c>
-      <c r="B59" s="31" t="s">
+      <c r="B59" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="C59" s="31" t="s">
+      <c r="C59" s="22" t="s">
         <v>186</v>
       </c>
-      <c r="D59" s="48">
+      <c r="D59" s="33">
         <v>4900</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A60" s="31">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A60" s="22">
         <v>45</v>
       </c>
-      <c r="B60" s="31" t="s">
+      <c r="B60" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="C60" s="31" t="s">
+      <c r="C60" s="22" t="s">
         <v>187</v>
       </c>
-      <c r="D60" s="48">
+      <c r="D60" s="33">
         <v>3400</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A61" s="31">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A61" s="22">
         <v>46</v>
       </c>
-      <c r="B61" s="31" t="s">
+      <c r="B61" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="C61" s="31" t="s">
+      <c r="C61" s="22" t="s">
         <v>187</v>
       </c>
-      <c r="D61" s="48">
+      <c r="D61" s="33">
         <v>800</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A62" s="31">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A62" s="22">
         <v>47</v>
       </c>
-      <c r="B62" s="31" t="s">
+      <c r="B62" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="C62" s="31" t="s">
+      <c r="C62" s="22" t="s">
         <v>186</v>
       </c>
-      <c r="D62" s="48">
+      <c r="D62" s="33">
         <v>4850</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A63" s="31">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A63" s="22">
         <v>48</v>
       </c>
-      <c r="B63" s="31" t="s">
+      <c r="B63" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="C63" s="31" t="s">
+      <c r="C63" s="22" t="s">
         <v>188</v>
       </c>
-      <c r="D63" s="48">
+      <c r="D63" s="33">
         <v>2850</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A64" s="31">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A64" s="22">
         <v>49</v>
       </c>
-      <c r="B64" s="31" t="s">
+      <c r="B64" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="C64" s="31" t="s">
+      <c r="C64" s="22" t="s">
         <v>187</v>
       </c>
-      <c r="D64" s="48">
+      <c r="D64" s="33">
         <v>2500</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A65" s="31">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A65" s="22">
         <v>50</v>
       </c>
-      <c r="B65" s="31" t="s">
+      <c r="B65" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="C65" s="31" t="s">
+      <c r="C65" s="22" t="s">
         <v>187</v>
       </c>
-      <c r="D65" s="48">
+      <c r="D65" s="33">
         <v>800</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A66" s="31">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A66" s="22">
         <v>51</v>
       </c>
-      <c r="B66" s="31" t="s">
+      <c r="B66" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="C66" s="31" t="s">
+      <c r="C66" s="22" t="s">
         <v>187</v>
       </c>
-      <c r="D66" s="48">
+      <c r="D66" s="33">
         <v>2900</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A67" s="31">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A67" s="22">
         <v>52</v>
       </c>
-      <c r="B67" s="31" t="s">
+      <c r="B67" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="C67" s="31" t="s">
+      <c r="C67" s="22" t="s">
         <v>187</v>
       </c>
-      <c r="D67" s="48">
+      <c r="D67" s="33">
         <v>2250</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A68" s="31">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A68" s="22">
         <v>53</v>
       </c>
-      <c r="B68" s="31" t="s">
+      <c r="B68" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="C68" s="31" t="s">
+      <c r="C68" s="22" t="s">
         <v>187</v>
       </c>
-      <c r="D68" s="48">
+      <c r="D68" s="33">
         <v>2500</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A69" s="31">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A69" s="22">
         <v>54</v>
       </c>
-      <c r="B69" s="31" t="s">
+      <c r="B69" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="C69" s="31" t="s">
+      <c r="C69" s="22" t="s">
         <v>187</v>
       </c>
-      <c r="D69" s="48">
+      <c r="D69" s="33">
         <v>900</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A70" s="31">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A70" s="22">
         <v>55</v>
       </c>
-      <c r="B70" s="31" t="s">
+      <c r="B70" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="C70" s="31" t="s">
+      <c r="C70" s="22" t="s">
         <v>188</v>
       </c>
-      <c r="D70" s="48">
+      <c r="D70" s="33">
         <v>1050</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A71" s="31">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A71" s="22">
         <v>56</v>
       </c>
-      <c r="B71" s="31" t="s">
+      <c r="B71" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="C71" s="31" t="s">
+      <c r="C71" s="22" t="s">
         <v>187</v>
       </c>
-      <c r="D71" s="48">
+      <c r="D71" s="33">
         <v>2850</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A72" s="31">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A72" s="22">
         <v>57</v>
       </c>
-      <c r="B72" s="31" t="s">
+      <c r="B72" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="C72" s="31" t="s">
+      <c r="C72" s="22" t="s">
         <v>188</v>
       </c>
-      <c r="D72" s="48">
+      <c r="D72" s="33">
         <v>3650</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A73" s="31">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A73" s="22">
         <v>58</v>
       </c>
-      <c r="B73" s="31" t="s">
+      <c r="B73" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="C73" s="31" t="s">
+      <c r="C73" s="22" t="s">
         <v>186</v>
       </c>
-      <c r="D73" s="48">
+      <c r="D73" s="33">
         <v>4800</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A74" s="31">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A74" s="22">
         <v>59</v>
       </c>
-      <c r="B74" s="31" t="s">
+      <c r="B74" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="C74" s="31" t="s">
+      <c r="C74" s="22" t="s">
         <v>186</v>
       </c>
-      <c r="D74" s="48">
+      <c r="D74" s="33">
         <v>2650</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A75" s="31">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A75" s="22">
         <v>60</v>
       </c>
-      <c r="B75" s="31" t="s">
+      <c r="B75" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="C75" s="31" t="s">
+      <c r="C75" s="22" t="s">
         <v>188</v>
       </c>
-      <c r="D75" s="48">
+      <c r="D75" s="33">
         <v>2800</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A76" s="31">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A76" s="22">
         <v>61</v>
       </c>
-      <c r="B76" s="31" t="s">
+      <c r="B76" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="C76" s="31" t="s">
+      <c r="C76" s="22" t="s">
         <v>187</v>
       </c>
-      <c r="D76" s="48">
+      <c r="D76" s="33">
         <v>3050</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A77" s="31">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A77" s="22">
         <v>62</v>
       </c>
-      <c r="B77" s="31" t="s">
+      <c r="B77" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="C77" s="31" t="s">
+      <c r="C77" s="22" t="s">
         <v>186</v>
       </c>
-      <c r="D77" s="48">
+      <c r="D77" s="33">
         <v>2700</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A78" s="31">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A78" s="22">
         <v>63</v>
       </c>
-      <c r="B78" s="31" t="s">
+      <c r="B78" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="C78" s="31" t="s">
+      <c r="C78" s="22" t="s">
         <v>186</v>
       </c>
-      <c r="D78" s="48">
+      <c r="D78" s="33">
         <v>2600</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A79" s="31">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A79" s="22">
         <v>64</v>
       </c>
-      <c r="B79" s="31" t="s">
+      <c r="B79" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="C79" s="31" t="s">
+      <c r="C79" s="22" t="s">
         <v>186</v>
       </c>
-      <c r="D79" s="48">
+      <c r="D79" s="33">
         <v>50</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A80" s="31">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A80" s="22">
         <v>65</v>
       </c>
-      <c r="B80" s="31" t="s">
+      <c r="B80" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="C80" s="31" t="s">
+      <c r="C80" s="22" t="s">
         <v>188</v>
       </c>
-      <c r="D80" s="48">
+      <c r="D80" s="33">
         <v>3700</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A81" s="31">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A81" s="22">
         <v>66</v>
       </c>
-      <c r="B81" s="31" t="s">
+      <c r="B81" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="C81" s="31" t="s">
+      <c r="C81" s="22" t="s">
         <v>188</v>
       </c>
-      <c r="D81" s="48">
+      <c r="D81" s="33">
         <v>2450</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A82" s="31">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A82" s="22">
         <v>67</v>
       </c>
-      <c r="B82" s="31" t="s">
+      <c r="B82" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="C82" s="31" t="s">
+      <c r="C82" s="22" t="s">
         <v>186</v>
       </c>
-      <c r="D82" s="48">
+      <c r="D82" s="33">
         <v>1300</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A83" s="31">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A83" s="22">
         <v>68</v>
       </c>
-      <c r="B83" s="31" t="s">
+      <c r="B83" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="C83" s="31" t="s">
+      <c r="C83" s="22" t="s">
         <v>187</v>
       </c>
-      <c r="D83" s="48">
+      <c r="D83" s="33">
         <v>50</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A84" s="31">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A84" s="22">
         <v>69</v>
       </c>
-      <c r="B84" s="31" t="s">
+      <c r="B84" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="C84" s="31" t="s">
+      <c r="C84" s="22" t="s">
         <v>186</v>
       </c>
-      <c r="D84" s="48">
+      <c r="D84" s="33">
         <v>4300</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A85" s="31">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A85" s="22">
         <v>70</v>
       </c>
-      <c r="B85" s="31" t="s">
+      <c r="B85" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="C85" s="31" t="s">
+      <c r="C85" s="22" t="s">
         <v>188</v>
       </c>
-      <c r="D85" s="48">
+      <c r="D85" s="33">
         <v>4600</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A86" s="31">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A86" s="22">
         <v>71</v>
       </c>
-      <c r="B86" s="31" t="s">
+      <c r="B86" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="C86" s="31" t="s">
+      <c r="C86" s="22" t="s">
         <v>188</v>
       </c>
-      <c r="D86" s="48">
+      <c r="D86" s="33">
         <v>4850</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A87" s="31">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A87" s="22">
         <v>72</v>
       </c>
-      <c r="B87" s="31" t="s">
+      <c r="B87" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="C87" s="31" t="s">
+      <c r="C87" s="22" t="s">
         <v>186</v>
       </c>
-      <c r="D87" s="48">
+      <c r="D87" s="33">
         <v>900</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A88" s="31">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A88" s="22">
         <v>73</v>
       </c>
-      <c r="B88" s="31" t="s">
+      <c r="B88" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="C88" s="31" t="s">
+      <c r="C88" s="22" t="s">
         <v>188</v>
       </c>
-      <c r="D88" s="48">
+      <c r="D88" s="33">
         <v>450</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A89" s="31">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A89" s="22">
         <v>74</v>
       </c>
-      <c r="B89" s="31" t="s">
+      <c r="B89" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="C89" s="31" t="s">
+      <c r="C89" s="22" t="s">
         <v>188</v>
       </c>
-      <c r="D89" s="48">
+      <c r="D89" s="33">
         <v>3100</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A90" s="31">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A90" s="22">
         <v>75</v>
       </c>
-      <c r="B90" s="31" t="s">
+      <c r="B90" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="C90" s="31" t="s">
+      <c r="C90" s="22" t="s">
         <v>188</v>
       </c>
-      <c r="D90" s="48">
+      <c r="D90" s="33">
         <v>2300</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A91" s="31">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A91" s="22">
         <v>76</v>
       </c>
-      <c r="B91" s="31" t="s">
+      <c r="B91" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="C91" s="31" t="s">
+      <c r="C91" s="22" t="s">
         <v>187</v>
       </c>
-      <c r="D91" s="48">
+      <c r="D91" s="33">
         <v>4050</v>
       </c>
     </row>

--- a/Basic/6/result.xlsx
+++ b/Basic/6/result.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/macbook/Desktop/Excel/Basic/6/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98B96DC7-43A3-934A-97F2-33E871B86C0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{144363D3-2070-5E40-BA3D-87DD8A25EBA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" tabRatio="727" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" tabRatio="727" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Вводная" sheetId="8" r:id="rId1"/>
@@ -21,6 +21,14 @@
     <sheet name="Именованные диапазоны 1" sheetId="13" r:id="rId6"/>
     <sheet name="Именованные диапазоны 2" sheetId="28" r:id="rId7"/>
   </sheets>
+  <definedNames>
+    <definedName name="articul">'Именованные диапазоны 2'!$B$16:$B$91</definedName>
+    <definedName name="cursd">'Именованные диапазоны 1'!$I$11</definedName>
+    <definedName name="curse">'Именованные диапазоны 1'!$I$12</definedName>
+    <definedName name="filial">'Именованные диапазоны 2'!$C$16:$C$91</definedName>
+    <definedName name="price">'Именованные диапазоны 2'!$D$16:$D$91</definedName>
+    <definedName name="Центр">'Проверка данных'!$G$15:$G$18</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -38,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="193">
   <si>
     <t>Номер заказа</t>
   </si>
@@ -605,18 +613,32 @@
   </si>
   <si>
     <t>Запад</t>
+  </si>
+  <si>
+    <t>- Центр</t>
+  </si>
+  <si>
+    <t>- Северо-Запад</t>
+  </si>
+  <si>
+    <t>- Юг</t>
+  </si>
+  <si>
+    <t>- Восток</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="5">
+    <numFmt numFmtId="44" formatCode="_(&quot;£&quot;* #,##0.00_);_(&quot;£&quot;* \(#,##0.00\);_(&quot;£&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_-* #,##0.00&quot;р.&quot;_-;\-* #,##0.00&quot;р.&quot;_-;_-* &quot;-&quot;??&quot;р.&quot;_-;_-@_-"/>
     <numFmt numFmtId="165" formatCode="_-* #,##0.00_р_._-;\-* #,##0.00_р_._-;_-* &quot;-&quot;??_р_._-;_-@_-"/>
     <numFmt numFmtId="166" formatCode="#,##0.00&quot;р.&quot;"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -687,6 +709,13 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -904,7 +933,7 @@
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="165" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1030,6 +1059,9 @@
     <xf numFmtId="0" fontId="4" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Comma" xfId="4" builtinId="3"/>
@@ -2689,7 +2721,7 @@
   </sheetPr>
   <dimension ref="A13:J70"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="132" zoomScaleNormal="132" workbookViewId="0">
+    <sheetView zoomScale="132" zoomScaleNormal="132" workbookViewId="0">
       <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
@@ -3565,7 +3597,7 @@
       </c>
       <c r="J70" s="10" t="str">
         <f t="shared" ref="J70" ca="1" si="3">CHAR(CODE("A")+RANDBETWEEN(0,15))&amp;TEXT(RANDBETWEEN(0,999),"000")</f>
-        <v>K165</v>
+        <v>A805</v>
       </c>
     </row>
   </sheetData>
@@ -3587,7 +3619,9 @@
   </sheetPr>
   <dimension ref="A11:E35"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A7" zoomScale="171" zoomScaleNormal="171" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
@@ -3628,7 +3662,10 @@
       <c r="D12" s="2">
         <v>102</v>
       </c>
-      <c r="E12" s="24"/>
+      <c r="E12" s="24">
+        <f>IFERROR(C12/D12,"error")</f>
+        <v>3220.4509803921569</v>
+      </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="45"/>
@@ -3641,7 +3678,10 @@
       <c r="D13" s="2">
         <v>190</v>
       </c>
-      <c r="E13" s="24"/>
+      <c r="E13" s="24">
+        <f t="shared" ref="E13:E35" si="0">IFERROR(C13/D13,"error")</f>
+        <v>1361.2684210526315</v>
+      </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="45"/>
@@ -3654,7 +3694,10 @@
       <c r="D14" s="2">
         <v>182</v>
       </c>
-      <c r="E14" s="24"/>
+      <c r="E14" s="24">
+        <f t="shared" si="0"/>
+        <v>2559.8241758241757</v>
+      </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="46"/>
@@ -3667,7 +3710,10 @@
       <c r="D15" s="2">
         <v>175</v>
       </c>
-      <c r="E15" s="24"/>
+      <c r="E15" s="24">
+        <f t="shared" si="0"/>
+        <v>2766.4342857142856</v>
+      </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="44" t="s">
@@ -3682,7 +3728,10 @@
       <c r="D16" s="2">
         <v>200</v>
       </c>
-      <c r="E16" s="24"/>
+      <c r="E16" s="24">
+        <f t="shared" si="0"/>
+        <v>547.47500000000002</v>
+      </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="45"/>
@@ -3695,7 +3744,10 @@
       <c r="D17" s="2">
         <v>242</v>
       </c>
-      <c r="E17" s="24"/>
+      <c r="E17" s="24">
+        <f t="shared" si="0"/>
+        <v>356.25619834710744</v>
+      </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="45"/>
@@ -3708,7 +3760,10 @@
       <c r="D18" s="2">
         <v>240</v>
       </c>
-      <c r="E18" s="24"/>
+      <c r="E18" s="24">
+        <f t="shared" si="0"/>
+        <v>647.06666666666672</v>
+      </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="46"/>
@@ -3721,7 +3776,10 @@
       <c r="D19" s="2">
         <v>349</v>
       </c>
-      <c r="E19" s="24"/>
+      <c r="E19" s="24">
+        <f t="shared" si="0"/>
+        <v>462.39255014326648</v>
+      </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="44" t="s">
@@ -3736,7 +3794,10 @@
       <c r="D20" s="2">
         <v>35</v>
       </c>
-      <c r="E20" s="24"/>
+      <c r="E20" s="24">
+        <f t="shared" si="0"/>
+        <v>2444.7714285714287</v>
+      </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="45"/>
@@ -3749,7 +3810,10 @@
       <c r="D21" s="2">
         <v>0</v>
       </c>
-      <c r="E21" s="24"/>
+      <c r="E21" s="24" t="str">
+        <f t="shared" si="0"/>
+        <v>error</v>
+      </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="45"/>
@@ -3762,7 +3826,10 @@
       <c r="D22" s="2">
         <v>36</v>
       </c>
-      <c r="E22" s="24"/>
+      <c r="E22" s="24">
+        <f t="shared" si="0"/>
+        <v>1637.8333333333333</v>
+      </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="46"/>
@@ -3775,7 +3842,10 @@
       <c r="D23" s="2">
         <v>44</v>
       </c>
-      <c r="E23" s="24"/>
+      <c r="E23" s="24">
+        <f t="shared" si="0"/>
+        <v>1658.7727272727273</v>
+      </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="44" t="s">
@@ -3790,7 +3860,10 @@
       <c r="D24" s="2">
         <v>0</v>
       </c>
-      <c r="E24" s="24"/>
+      <c r="E24" s="24" t="str">
+        <f t="shared" si="0"/>
+        <v>error</v>
+      </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" s="45"/>
@@ -3803,7 +3876,10 @@
       <c r="D25" s="2">
         <v>50</v>
       </c>
-      <c r="E25" s="24"/>
+      <c r="E25" s="24">
+        <f t="shared" si="0"/>
+        <v>5000</v>
+      </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" s="45"/>
@@ -3816,7 +3892,10 @@
       <c r="D26" s="2">
         <v>24</v>
       </c>
-      <c r="E26" s="24"/>
+      <c r="E26" s="24">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" s="46"/>
@@ -3827,7 +3906,10 @@
         <v>0</v>
       </c>
       <c r="D27" s="2"/>
-      <c r="E27" s="24"/>
+      <c r="E27" s="24" t="str">
+        <f t="shared" si="0"/>
+        <v>error</v>
+      </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" s="44" t="s">
@@ -3842,7 +3924,10 @@
       <c r="D28" s="2">
         <v>0</v>
       </c>
-      <c r="E28" s="24"/>
+      <c r="E28" s="24" t="str">
+        <f t="shared" si="0"/>
+        <v>error</v>
+      </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" s="45"/>
@@ -3855,7 +3940,10 @@
       <c r="D29" s="2">
         <v>30</v>
       </c>
-      <c r="E29" s="24"/>
+      <c r="E29" s="24">
+        <f t="shared" si="0"/>
+        <v>1833.3333333333333</v>
+      </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" s="45"/>
@@ -3868,7 +3956,10 @@
       <c r="D30" s="2">
         <v>41</v>
       </c>
-      <c r="E30" s="24"/>
+      <c r="E30" s="24">
+        <f t="shared" si="0"/>
+        <v>1463.4146341463415</v>
+      </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" s="46"/>
@@ -3881,7 +3972,10 @@
       <c r="D31" s="2">
         <v>37</v>
       </c>
-      <c r="E31" s="24"/>
+      <c r="E31" s="24">
+        <f t="shared" si="0"/>
+        <v>1756.7567567567567</v>
+      </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" s="44" t="s">
@@ -3894,7 +3988,10 @@
         <v>212658</v>
       </c>
       <c r="D32" s="2"/>
-      <c r="E32" s="24"/>
+      <c r="E32" s="24" t="str">
+        <f t="shared" si="0"/>
+        <v>error</v>
+      </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" s="45"/>
@@ -3907,7 +4004,10 @@
       <c r="D33" s="2">
         <v>122</v>
       </c>
-      <c r="E33" s="24"/>
+      <c r="E33" s="24">
+        <f t="shared" si="0"/>
+        <v>1991.9918032786886</v>
+      </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" s="45"/>
@@ -3920,7 +4020,10 @@
       <c r="D34" s="2">
         <v>113</v>
       </c>
-      <c r="E34" s="24"/>
+      <c r="E34" s="24">
+        <f t="shared" si="0"/>
+        <v>1992.1150442477876</v>
+      </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" s="46"/>
@@ -3933,7 +4036,10 @@
       <c r="D35" s="2">
         <v>135</v>
       </c>
-      <c r="E35" s="24"/>
+      <c r="E35" s="24">
+        <f t="shared" si="0"/>
+        <v>1993.9925925925927</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -3956,7 +4062,9 @@
   </sheetPr>
   <dimension ref="A11:G24"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A2" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
@@ -4002,7 +4110,10 @@
       <c r="B13" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="C13" s="2"/>
+      <c r="C13" s="2">
+        <f>_xlfn.IFNA(VLOOKUP(B13,$F$13:$G$24,2,0),0)</f>
+        <v>110</v>
+      </c>
       <c r="F13" s="20" t="s">
         <v>153</v>
       </c>
@@ -4017,7 +4128,10 @@
       <c r="B14" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="C14" s="2"/>
+      <c r="C14" s="2">
+        <f t="shared" ref="C14:C22" si="0">_xlfn.IFNA(VLOOKUP(B14,$F$13:$G$24,2,0),0)</f>
+        <v>44</v>
+      </c>
       <c r="F14" s="20" t="s">
         <v>154</v>
       </c>
@@ -4032,7 +4146,10 @@
       <c r="B15" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="C15" s="2"/>
+      <c r="C15" s="2">
+        <f t="shared" si="0"/>
+        <v>102</v>
+      </c>
       <c r="F15" s="20" t="s">
         <v>164</v>
       </c>
@@ -4047,7 +4164,10 @@
       <c r="B16" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="C16" s="2"/>
+      <c r="C16" s="2">
+        <f t="shared" si="0"/>
+        <v>122</v>
+      </c>
       <c r="F16" s="20" t="s">
         <v>155</v>
       </c>
@@ -4062,7 +4182,10 @@
       <c r="B17" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="C17" s="2"/>
+      <c r="C17" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="F17" s="20" t="s">
         <v>165</v>
       </c>
@@ -4077,7 +4200,10 @@
       <c r="B18" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="C18" s="2"/>
+      <c r="C18" s="2">
+        <f t="shared" si="0"/>
+        <v>160</v>
+      </c>
       <c r="F18" s="20" t="s">
         <v>156</v>
       </c>
@@ -4092,7 +4218,10 @@
       <c r="B19" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="C19" s="2"/>
+      <c r="C19" s="2">
+        <f t="shared" si="0"/>
+        <v>264</v>
+      </c>
       <c r="F19" s="20" t="s">
         <v>157</v>
       </c>
@@ -4107,7 +4236,10 @@
       <c r="B20" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="C20" s="2"/>
+      <c r="C20" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="F20" s="20" t="s">
         <v>158</v>
       </c>
@@ -4122,7 +4254,10 @@
       <c r="B21" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="C21" s="2"/>
+      <c r="C21" s="2">
+        <f t="shared" si="0"/>
+        <v>72</v>
+      </c>
       <c r="F21" s="20" t="s">
         <v>160</v>
       </c>
@@ -4137,7 +4272,10 @@
       <c r="B22" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="C22" s="2"/>
+      <c r="C22" s="2">
+        <f t="shared" si="0"/>
+        <v>88</v>
+      </c>
       <c r="F22" s="20" t="s">
         <v>161</v>
       </c>
@@ -4156,6 +4294,10 @@
     <row r="24" spans="1:7" ht="19" x14ac:dyDescent="0.2">
       <c r="B24" s="26" t="s">
         <v>166</v>
+      </c>
+      <c r="C24">
+        <f>SUM(C13:C22)</f>
+        <v>962</v>
       </c>
       <c r="F24" s="20" t="s">
         <v>163</v>
@@ -4182,10 +4324,10 @@
   <sheetPr>
     <tabColor theme="3" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A13:C28"/>
+  <dimension ref="A13:G28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView topLeftCell="A8" zoomScale="203" zoomScaleNormal="203" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4195,7 +4337,7 @@
     <col min="3" max="3" width="17.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>145</v>
       </c>
@@ -4206,142 +4348,190 @@
         <v>146</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <v>1</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C14" s="2"/>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C14" s="2" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
         <v>2</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C15" s="2"/>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C15" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="G15" s="49" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
         <v>3</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C16" s="2"/>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C16" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="G16" s="49" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
         <v>4</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C17" s="2"/>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C17" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="G17" s="49" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
         <v>5</v>
       </c>
       <c r="B18" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C18" s="2"/>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C18" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="G18" s="49" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
         <v>6</v>
       </c>
       <c r="B19" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C19" s="2"/>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C19" s="2" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
         <v>7</v>
       </c>
       <c r="B20" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C20" s="2"/>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C20" s="2" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
         <v>8</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C21" s="2"/>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C21" s="2" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
         <v>9</v>
       </c>
       <c r="B22" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C22" s="2"/>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C22" s="2" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="2">
         <v>10</v>
       </c>
       <c r="B23" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C23" s="2"/>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C23" s="2" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" s="2">
         <v>11</v>
       </c>
       <c r="B24" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C24" s="2"/>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C24" s="2" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" s="2">
         <v>12</v>
       </c>
       <c r="B25" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C25" s="2"/>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C25" s="2" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" s="2">
         <v>13</v>
       </c>
       <c r="B26" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C26" s="2"/>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C26" s="2" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" s="2">
         <v>14</v>
       </c>
       <c r="B27" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C27" s="2"/>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C27" s="2" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" s="2">
         <v>15</v>
       </c>
       <c r="B28" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C28" s="2"/>
+      <c r="C28" s="2" t="s">
+        <v>191</v>
+      </c>
     </row>
   </sheetData>
+  <dataConsolidate/>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C14:C28" xr:uid="{E2BC8161-1604-114C-89CD-641A38E21FB9}">
+      <formula1>Центр</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -4354,8 +4544,8 @@
   </sheetPr>
   <dimension ref="B11:I26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J40" sqref="J40"/>
+    <sheetView zoomScale="168" zoomScaleNormal="168" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4387,8 +4577,14 @@
       <c r="B12" s="19">
         <v>217465</v>
       </c>
-      <c r="C12" s="2"/>
-      <c r="D12" s="4"/>
+      <c r="C12" s="50">
+        <f>B12/cursd</f>
+        <v>2899.5333333333333</v>
+      </c>
+      <c r="D12" s="51">
+        <f>B12/curse</f>
+        <v>2558.4117647058824</v>
+      </c>
       <c r="H12" s="27" t="s">
         <v>151</v>
       </c>
@@ -4400,99 +4596,183 @@
       <c r="B13" s="19">
         <v>52472</v>
       </c>
-      <c r="C13" s="2"/>
-      <c r="D13" s="4"/>
+      <c r="C13" s="50">
+        <f>B13/cursd</f>
+        <v>699.62666666666667</v>
+      </c>
+      <c r="D13" s="51">
+        <f>B13/curse</f>
+        <v>617.31764705882358</v>
+      </c>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B14" s="19">
         <v>124018</v>
       </c>
-      <c r="C14" s="2"/>
-      <c r="D14" s="4"/>
+      <c r="C14" s="50">
+        <f>B14/cursd</f>
+        <v>1653.5733333333333</v>
+      </c>
+      <c r="D14" s="51">
+        <f>B14/curse</f>
+        <v>1459.035294117647</v>
+      </c>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B15" s="19">
         <v>24566</v>
       </c>
-      <c r="C15" s="2"/>
-      <c r="D15" s="4"/>
+      <c r="C15" s="50">
+        <f>B15/cursd</f>
+        <v>327.54666666666668</v>
+      </c>
+      <c r="D15" s="51">
+        <f>B15/curse</f>
+        <v>289.01176470588234</v>
+      </c>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B16" s="19">
         <v>67518</v>
       </c>
-      <c r="C16" s="2"/>
-      <c r="D16" s="4"/>
+      <c r="C16" s="50">
+        <f>B16/cursd</f>
+        <v>900.24</v>
+      </c>
+      <c r="D16" s="51">
+        <f>B16/curse</f>
+        <v>794.32941176470592</v>
+      </c>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B17" s="19">
         <v>165611</v>
       </c>
-      <c r="C17" s="2"/>
-      <c r="D17" s="4"/>
+      <c r="C17" s="50">
+        <f>B17/cursd</f>
+        <v>2208.1466666666665</v>
+      </c>
+      <c r="D17" s="51">
+        <f>B17/curse</f>
+        <v>1948.3647058823528</v>
+      </c>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B18" s="19">
         <v>156409</v>
       </c>
-      <c r="C18" s="2"/>
-      <c r="D18" s="4"/>
+      <c r="C18" s="50">
+        <f>B18/cursd</f>
+        <v>2085.4533333333334</v>
+      </c>
+      <c r="D18" s="51">
+        <f>B18/curse</f>
+        <v>1840.1058823529411</v>
+      </c>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B19" s="19">
         <v>123626</v>
       </c>
-      <c r="C19" s="2"/>
-      <c r="D19" s="4"/>
+      <c r="C19" s="50">
+        <f>B19/cursd</f>
+        <v>1648.3466666666666</v>
+      </c>
+      <c r="D19" s="51">
+        <f>B19/curse</f>
+        <v>1454.4235294117648</v>
+      </c>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B20" s="19">
         <v>94914</v>
       </c>
-      <c r="C20" s="2"/>
-      <c r="D20" s="4"/>
+      <c r="C20" s="50">
+        <f>B20/cursd</f>
+        <v>1265.52</v>
+      </c>
+      <c r="D20" s="51">
+        <f>B20/curse</f>
+        <v>1116.6352941176472</v>
+      </c>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B21" s="19">
         <v>168580</v>
       </c>
-      <c r="C21" s="2"/>
-      <c r="D21" s="4"/>
+      <c r="C21" s="50">
+        <f>B21/cursd</f>
+        <v>2247.7333333333331</v>
+      </c>
+      <c r="D21" s="51">
+        <f>B21/curse</f>
+        <v>1983.2941176470588</v>
+      </c>
     </row>
     <row r="22" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B22" s="19">
         <v>50998</v>
       </c>
-      <c r="C22" s="2"/>
-      <c r="D22" s="4"/>
+      <c r="C22" s="50">
+        <f>B22/cursd</f>
+        <v>679.97333333333336</v>
+      </c>
+      <c r="D22" s="51">
+        <f>B22/curse</f>
+        <v>599.97647058823532</v>
+      </c>
     </row>
     <row r="23" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B23" s="19">
         <v>74350</v>
       </c>
-      <c r="C23" s="2"/>
-      <c r="D23" s="4"/>
+      <c r="C23" s="50">
+        <f>B23/cursd</f>
+        <v>991.33333333333337</v>
+      </c>
+      <c r="D23" s="51">
+        <f>B23/curse</f>
+        <v>874.70588235294122</v>
+      </c>
     </row>
     <row r="24" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B24" s="19">
         <v>127859</v>
       </c>
-      <c r="C24" s="2"/>
-      <c r="D24" s="4"/>
+      <c r="C24" s="50">
+        <f>B24/cursd</f>
+        <v>1704.7866666666666</v>
+      </c>
+      <c r="D24" s="51">
+        <f>B24/curse</f>
+        <v>1504.2235294117647</v>
+      </c>
     </row>
     <row r="25" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B25" s="19">
         <v>184966</v>
       </c>
-      <c r="C25" s="2"/>
-      <c r="D25" s="4"/>
+      <c r="C25" s="50">
+        <f>B25/cursd</f>
+        <v>2466.2133333333331</v>
+      </c>
+      <c r="D25" s="51">
+        <f>B25/curse</f>
+        <v>2176.0705882352941</v>
+      </c>
     </row>
     <row r="26" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B26" s="19">
         <v>169251</v>
       </c>
-      <c r="C26" s="2"/>
-      <c r="D26" s="4"/>
+      <c r="C26" s="50">
+        <f>B26/cursd</f>
+        <v>2256.6799999999998</v>
+      </c>
+      <c r="D26" s="51">
+        <f>B26/curse</f>
+        <v>1991.1882352941177</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4507,7 +4787,9 @@
   </sheetPr>
   <dimension ref="A15:J91"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <selection activeCell="I23" sqref="I23"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
@@ -4564,8 +4846,14 @@
       <c r="H16" s="35" t="s">
         <v>187</v>
       </c>
-      <c r="I16" s="36"/>
-      <c r="J16" s="37"/>
+      <c r="I16" s="36">
+        <f>COUNTIFS(articul,G16,filial,H16)</f>
+        <v>8</v>
+      </c>
+      <c r="J16" s="37">
+        <f>SUMIFS(price,articul,G16,filial,H16)</f>
+        <v>14700</v>
+      </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" s="22">
@@ -4586,8 +4874,14 @@
       <c r="H17" s="35" t="s">
         <v>186</v>
       </c>
-      <c r="I17" s="36"/>
-      <c r="J17" s="37"/>
+      <c r="I17" s="36">
+        <f>COUNTIFS(articul,G17,filial,H17)</f>
+        <v>6</v>
+      </c>
+      <c r="J17" s="37">
+        <f>SUMIFS(price,articul,G17,filial,H17)</f>
+        <v>19550</v>
+      </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" s="22">
@@ -4608,8 +4902,14 @@
       <c r="H18" s="35" t="s">
         <v>188</v>
       </c>
-      <c r="I18" s="36"/>
-      <c r="J18" s="37"/>
+      <c r="I18" s="36">
+        <f>COUNTIFS(articul,G18,filial,H18)</f>
+        <v>4</v>
+      </c>
+      <c r="J18" s="37">
+        <f>SUMIFS(price,articul,G18,filial,H18)</f>
+        <v>9250</v>
+      </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" s="22">
@@ -4630,8 +4930,14 @@
       <c r="H19" s="35" t="s">
         <v>186</v>
       </c>
-      <c r="I19" s="36"/>
-      <c r="J19" s="37"/>
+      <c r="I19" s="36">
+        <f>COUNTIFS(articul,G19,filial,H19)</f>
+        <v>6</v>
+      </c>
+      <c r="J19" s="37">
+        <f>SUMIFS(price,articul,G19,filial,H19)</f>
+        <v>19050</v>
+      </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" s="22">
@@ -4652,8 +4958,14 @@
       <c r="H20" s="35" t="s">
         <v>187</v>
       </c>
-      <c r="I20" s="36"/>
-      <c r="J20" s="37"/>
+      <c r="I20" s="36">
+        <f>COUNTIFS(articul,G20,filial,H20)</f>
+        <v>2</v>
+      </c>
+      <c r="J20" s="37">
+        <f>SUMIFS(price,articul,G20,filial,H20)</f>
+        <v>3350</v>
+      </c>
     </row>
     <row r="21" spans="1:10" s="39" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="22">
